--- a/client/src/Excel/Data/General.xlsx
+++ b/client/src/Excel/Data/General.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1151168-FB24-4476-96D9-8A6F985E4024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CF7BE5-596B-4604-9083-A229571CCE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,10 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="131">
-  <si>
-    <t>TitleInternal</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="361">
   <si>
     <t>Title</t>
   </si>
@@ -77,12 +74,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>كم باقي على عيد الفطر</t>
-  </si>
-  <si>
-    <t>كم باقي على عيد الفطر 2025</t>
-  </si>
-  <si>
     <t>eid-fatr.webp</t>
   </si>
   <si>
@@ -95,15 +86,6 @@
     <t>2025-03-30T00:00:00</t>
   </si>
   <si>
-    <t xml:space="preserve">يمكنكم من خلال العد التنازلي في الأعلى من معرفة كم باقي يوم على عيد الفطر بكل سهولة، حيث يبين لكم العد التنازلي لبداية عيد الفطر عدد الأيام المتبقية على عيد الفطر. يعد عيد الفطر المبارك من أهم الأعياد في العالم الإسلامي، ويأتي مباشرة بعد انتهاء شهر رمضان المبارك. الكثير من المسلمين حول العالم يتطلعون لمعرفة كم باقي على عيد الفطر 2025 للاحتفال بهذه المناسبة السعيدة. يمكنكم من خلال العد التنازلي في الأعلى معرفة كم باقي يوم على عيد الفطر بكل سهولة، حيث يبين لكم العد التنازلي لبداية عيد الفطر عدد الأيام المتبقية على حلول عيد الفطر المبارك، مع عرض المدة المتبقية بالشهور، الأسابيع، الأيام، الساعات وأيضًا بالتاريخ الهجري._x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D_
-</t>
-  </si>
-  <si>
     <t>العد التنازلي ل بدء عيد الفطر</t>
   </si>
   <si>
@@ -111,13 +93,6 @@
   </si>
   <si>
     <t>يُطلق على هذه المناسبة اسم عيد الفطر لأنه يمثل اليوم الأول من شهر شوال، وهو اليوم الذي يُحتفل فيه المسلمون بعد إتمام شهر رمضان المبارك. ولهذا السبب حرم الله سبحانه وتعالى صيام هذا اليوم، ليكون يوم احتفال وفرحة. يأتي عيد الفطر بعد انتهاء فترة الصيام، ويمتد على مدار ثلاثة أيام متواصلة.</t>
-  </si>
-  <si>
-    <t>الاغتسال والتجمل للعيد، وقد نقل ذلك عن عدد من السلف من الصحابة ومن بعدهم، اقتداء بالنبي ـ صلى الله عليه وسلم ـ، قال ابن القيم: ""وكان ـ صلى الله عليه وسلم ـ يلبس لهما (أي للعيدين) أجمل ثيابه، وكان له حُلة يلبسها للعيدين والجمعة."" والرجل يخرج على هذه الصفة من التجمل، وأما النساء فإنهن إذا خرجن لصلاة العيد وغيرها يخرجن على الصفة التي أذن بها لهن النبي ـ صلى الله عليه وسلم ـ إذا شهدن الصلاة حيث قال: (لا تمنعوا إماء الله مساجد الله ولكن ليخرجن وهن تَفِلات (غير متطيبات)) رواه أبو داود._x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D_
-قال ابن حجر: ""ويلحق بالطيب ما في معناه، لأن سبب المنع منه ما فيه من تحريك داعية الشهوة، كحسن الملبس والحلي الذي يظهر، والزينة الفاخرة، وكذا الاختلاط بالرجال.""_x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D_
-وفي عيد الفطر يُشرع التكبير من ليلة العيد حتى حضور الصلاة، حيث ثبت عنه ـ صلى الله عليه وسلم ـ أنه كان يُكبِّر في تلك الليلة، ويخرج المسلمون لأداء صلاة العيد بعد التكبير، لتكون مناسبة تعبير عن الفرح والشكر لله على نعمه، حيث يُعتبر العيد فرصة لتعزيز الروابط الاجتماعية وتقديم الزكاة والفطرة في سبيل الله.</t>
   </si>
   <si>
     <t xml:space="preserve">عبر موقعنا، يمكنكم الاطلاع على كافة المعلومات المتعلقة بعيد الفطر 2025، مثل: كم يتبقى على العيد، موعد عيد الفطر 2025، تاريخ عيد الفطر 2025، عيد الفطر ٢٠٢٥، متى يكون عيد الفطر 2025، وأول أيام العيد. كما يمكنكم معرفة المزيد حول العيد الصغير 2025، عيد رمضان، وكم يومًا يتبقى حتى حلول عيد الفطر. احصلوا على تفاصيل شاملة حول يوم عيد الفطر 2025، وتواريخ الاحتفال، والمواعيد الدقيقة لأول أيام عيد الفطر المبارك._x000D__x000D__x000D__x000D__x000D_
@@ -128,20 +103,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">عيد الفطر 2025، كم باقي على العيد، موعد عيد الفطر 2025، تاريخ عيد الفطر 2025، العيد الصغير، عيد الفطر، متى عيد الفطر 2025، أول أيام عيد الفطر المبارك 2025، كم باقي للعيد، عيد رمضان 2025، يوم عيد الفطر 2025، كم باقي على عيد الفطر 2025، يوم العيد الفطر 2025، العيد الفطر المبارك، تاريخ العيد الفطر 2025، متى العيد 2025، كم باقي على العيد 2025، العد التنازلي لعيد الفطر._x000D__x000D__x000D__x000D__x000D_
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">عيد الفطر 2025، العد التنازلي، كم باقي على العيد، عيد الفطر ٢٠٢٥، موعد عيد الفطر 2025، العيد الفطر 2025، تاريخ عيد الفطر 2025، متى عيد الفطر 2025، العيد الصغير، عيد الفطر، متى العيد، أول أيام عيد الفطر 2025، العيد الصغير 2025، كم باقي على عيد الفطر، كم باقي على العيد الفطر، يوم العيد الفطر 2025، متى العيد الفطر 2025، أول أيام عيد الفطر المبارك 2025، كم باقي للعيد، عيد رمضان 2025، يوم عيد الفطر 2025، كم باقي على العيد الفطر 2025، كم باقي على العيد 2025، عيد الفطر المبارك، تاريخ العيد الفطر 2025، متى العيد 2025._x000D__x000D__x000D__x000D__x000D_
 </t>
   </si>
   <si>
-    <t>كم باقي على عيد الأضحى</t>
-  </si>
-  <si>
-    <t>كم باقي على عيد الأضحى 2025</t>
-  </si>
-  <si>
     <t>eid-adha.webp</t>
   </si>
   <si>
@@ -152,9 +117,6 @@
   </si>
   <si>
     <t>2025-06-07T00:00:00</t>
-  </si>
-  <si>
-    <t>يمكنكم من خلال العد التنازلي في الأعلى من معرفة كم باقي يوم على عيد الأضحى بكل سهولة، حيث يبين لكم العد التنازلي لبداية عيد الأضحى عدد الأيام المتبقية على عيد الأضحى. يعد عيد الأضحى المبارك من أهم الأعياد في العالم الإسلامي، ويأتي مباشرة بعد انتهاء مناسك الحج في اليوم العاشر من شهر ذي الحجة. يعتبر هذا العيد رمزًا للتضحية والفداء، حيث يحيي المسلمون ذكرى قصة نبي الله إبراهيم عليه السلام وابنه إسماعيل. الكثير من المسلمين حول العالم يتطلعون لمعرفة كم باقي على عيد الأضحى للاحتفال بهذه المناسبة السعيدة. يمكنكم من خلال العد التنازلي في الأعلى معرفة كم باقي يوم على عيد الأضحى بكل سهولة، حيث يبين لكم العد التنازلي لبداية عيد الأضحى عدد الأيام المتبقية على حلول عيد الأضحى المبارك، مع عرض المدة المتبقية بالشهور، الأسابيع، الأيام، الساعات وأيضًا بالتاريخ الهجري. بالإضافة إلى ذلك، يُعتبر عيد الأضحى مرتبطًا ارتباطًا وثيقًا بمناسك الحج، حيث يؤدي الحجاج فريضة الحج قبل الاحتفال بهذا العيد.</t>
   </si>
   <si>
     <t>العد التنازلي ل بدء عيد الأضحى</t>
@@ -165,43 +127,18 @@
                                                                                                                                                                                                                                                                 يحمل العيد معه الفرح والسعادة لكل الناس, وخاصة الأطفال الذين ينتظرونه بشوق ولهفة كل عام. أما بالنسبة للكبار, فهو فرصة للتواصل مع الأهل والأصدقاء, ولتعزيز صلة الرحم التي قد تكون تأثرت بظروف الحياة اليومية والانشغالات. كما يُعد عيد الأضحى مناسبة لتوزيع الأضاحي وتقديم الصدقات, مما يعزز قيم الكرم والعطاء في المجتمع.</t>
   </si>
   <si>
-    <t>لاغتسال والتجمل للعيد، وقد نقل ذلك عن عدد من السلف من الصحابة ومن بعدهم، اقتداء بالنبي ـ صلى الله عليه وسلم ـ، قال ابن القيم: "" وكان ـ صلى الله عليه وسلم ـ يلبس لهما ( أي للعيدين ) أجمل ثيابه، وكان له حُلة يلبسها للعيدين والجمعة "" . والرجل يخرج على هذه الصفة من التجمل، وأما النساء فإنهن إذا خرجن لصلاة العيد وغيرها يخرجن على الصفة التي أذن بها لهن النبي ـ صلى الله عليه وسلم ـ إذا شهدن الصلاة حيث قال: ( لا تمنعوا إماء الله مساجد الله ولكن ليخرجن وهن تَفِلات (غير متطيبات) ) رواه أبو داود ._x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D_
-قال ابن حجر: "" ويلحق بالطيب ما في معناه، لأن سبب المنع منه ما فيه من تحريك داعية الشهوة، كحسن الملبس والحلي الذي يظهر، والزينة الفاخرة، وكذا الاختلاط بالرجال "" ._x000D__x000D__x000D__x000D__x000D_
-_x000D__x000D__x000D__x000D__x000D_
-وفي عيد الأضحى يُشرع التكبير من فجر يوم عرفة حتى انتهاء أيام التشريق، حيث ثبت عنه ـ صلى الله عليه وسلم ـ أنه كان يُكبِّر في تلك الأيام، ويجتمع المسلمون لأداء صلاة العيد بعد التكبير، لتكون مناسبة تعبير عن الفرح والشكر لله على نعمه، حيث يُعتبر العيد فرصة لتعزيز الروابط الاجتماعية وتقديم الأضاحي في سبيل الله.</t>
-  </si>
-  <si>
     <t>عبر موقعنا، يمكنكم الاطلاع على كافة المعلومات المتعلقة بعيد الأضحى 2025، مثل: كم يتبقى على العيد، موعد عيد الأضحى 2025، تاريخ عيد الأضحى 2025، عيد الأضحى ٢٠٢٥، متى يكون عيد الأضحى 2025، وأول أيام العيد. كما يمكنكم معرفة المزيد حول عيد الأضحى المبارك 2025، ومناسك الحج، وكم يومًا يتبقى حتى حلول عيد الأضحى. احصلوا على تفاصيل شاملة حول يوم عيد الأضحى 2025، وتواريخ الاحتفال، والمواعيد الدقيقة لأول أيام عيد الأضحى المبارك.</t>
   </si>
   <si>
-    <t xml:space="preserve"> الأضحى 2025، كم باقي على العيد، موعد عيد الأضحى 2025، تاريخ عيد الأضحى 2025، عيد الأضحى المبارك، متى عيد الأضحى 2025، أول أيام عيد الأضحى المبارك 2025، كم باقي للعيد، أيام الحج 2025، يوم عيد الأضحى 2025، كم باقي على عيد الأضحى 2025، يوم عيد الأضحى 2025، العيد الأضحى المبارك، تاريخ عيد الأضحى 2025، متى العيد 2025، كم باقي على العيد 2025، العد التنازلي لعيد الأضحى.</t>
-  </si>
-  <si>
     <t>عيد الأضحى 2025، العد التنازلي، كم باقي على العيد، عيد الأضحى ٢٠٢٥، موعد عيد الأضحى 2025، العيد الأضحى 2025، تاريخ عيد الأضحى 2025، متى عيد الأضحى 2025، عيد الأضحى المبارك، متى العيد، أول أيام عيد الأضحى 2025، عيد الأضحى 2025، كم باقي على عيد الأضحى، كم باقي على العيد الأضحى، يوم عيد الأضحى 2025، متى عيد الأضحى 2025، أول أيام عيد الأضحى المبارك 2025، كم باقي للعيد، عيد الأضحى 2025، يوم عيد الأضحى 2025، كم باقي على العيد الأضحى 2025، كم باقي على العيد 2025، عيد الأضحى المبارك، تاريخ عيد الأضحى 2025، متى العيد 2025.</t>
   </si>
   <si>
-    <t>كم باقي على  رمضان</t>
-  </si>
-  <si>
-    <t>كم باقي على  رمضان 2025</t>
-  </si>
-  <si>
     <t>ramadan.webp</t>
   </si>
   <si>
     <t>كم_باقي_على_رمضان</t>
   </si>
   <si>
-    <t>رمضان</t>
-  </si>
-  <si>
-    <t>2025-08-24T00:00:00</t>
-  </si>
-  <si>
-    <t>يمكنكم من خلال العد التنازلي في الأعلى معرفة كم باقي يوم على حلول شهر رمضان بكل سهولة، حيث يبين لكم العد التنازلي لبداية شهر رمضان عدد الأيام المتبقية على شهر الصيام. يعد شهر رمضان المبارك من أهم الأشهر في العالم الإسلامي، حيث يُعتبر فرصة للتقرب إلى الله من خلال الصيام، الصلاة، وقراءة القرآن. يعتبر هذا الشهر رمزًا للتضحية والتسامح، حيث يحيي المسلمون ذكرى نزول القرآن. الكثير من المسلمين حول العالم يتطلعون لمعرفة كم باقي على رمضان للاحتفال بهذه المناسبة الروحية العظيمة. يمكنكم من خلال العد التنازلي في الأعلى معرفة كم باقي يوم على رمضان بكل سهولة، حيث يبين لكم العد التنازلي لبداية شهر رمضان عدد الأيام المتبقية على حلول شهر رمضان المبارك، مع عرض المدة المتبقية بالشهور، الأسابيع، الأيام، الساعات وأيضًا بالتاريخ الهجري. بالإضافة إلى ذلك، يُعتبر شهر رمضان مرتبطًا ارتباطًا وثيقًا بممارسة الطقوس الدينية، حيث يجتمع المسلمون للإفطار وصلاة التراويح وتعزيز الروابط الأسرية والاجتماعية.</t>
-  </si>
-  <si>
     <t>لعد التنازلي ل بدء  شهر رمضان الكريم</t>
   </si>
   <si>
@@ -217,9 +154,6 @@
     <t>عبر موقعنا، يمكنكم الاطلاع على كافة المعلومات المتعلقة بشهر رمضان 2025، مثل: كم يتبقى على رمضان، موعد رمضان 2025، تاريخ رمضان 2025، شهر رمضان ٢٠٢٥، متى يبدأ رمضان 2025، وأول أيام الشهر. كما يمكنكم معرفة المزيد حول رمضان المبارك 2025، وأهمية الصيام، وكم يومًا يتبقى حتى حلول شهر رمضان. احصلوا على تفاصيل شاملة حول يوم رمضان 2025، وتواريخ الاحتفال، والمواعيد الدقيقة لأول أيام شهر رمضان المبارك.</t>
   </si>
   <si>
-    <t>رمضان 2025، كم باقي على الشهر، موعد رمضان 2025، تاريخ رمضان 2025، شهر رمضان المبارك، متى يبدأ رمضان 2025، أول أيام رمضان المبارك 2025، كم باقي للشهر، أيام الصيام 2025، يوم رمضان 2025، كم باقي على رمضان 2025، يوم رمضان 2025، شهر رمضان المبارك، تاريخ رمضان 2025، متى الشهر 2025، كم باقي على رمضان 2025، العد التنازلي لرمضان.</t>
-  </si>
-  <si>
     <t>رمضان 2025، العد التنازلي، كم باقي على الشهر، رمضان ٢٠٢٥، موعد رمضان 2025، شهر رمضان 2025، تاريخ رمضان 2025، متى يبدأ رمضان 2025، رمضان المبارك، متى الشهر، أول أيام رمضان 2025، رمضان 2025، كم باقي على رمضان، كم باقي على الشهر، يوم رمضان 2025، متى رمضان 2025، أول أيام رمضان المبارك 2025، كم باقي للشهر، رمضان 2025، يوم رمضان 2025، كم باقي على رمضان 2025، كم باقي على الشهر 2025، رمضان المبارك، تاريخ رمضان 2025، متى الشهر 2025.</t>
   </si>
   <si>
@@ -229,16 +163,7 @@
     <t>كم_باقي_على_ليلة_النصف_من_شعبان</t>
   </si>
   <si>
-    <t>النصف من شعبان</t>
-  </si>
-  <si>
     <t>2025-02-13T00:00:00</t>
-  </si>
-  <si>
-    <t>يمكنكم من خلال العد التنازلي في الأعلى معرفة كم باقي يوم على ليلة النصف من شعبان بكل سهولة، حيث يبين لكم العد التنازلي لبداية هذه الليلة عدد الأيام المتبقية. تعد ليلة النصف من شعبان من الليالي المباركة، حيث يتطلع المسلمون حول العالم للاحتفال بها ويكثر الدعاء فيها. يمكنكم من خلال العد التنازلي في الأعلى معرفة كم باقي يوم على هذه المناسبة السعيدة، مع عرض المدة المتبقية بالشهور، الأسابيع، الأيام، الساعات وأيضًا بالتاريخ الهجري</t>
-  </si>
-  <si>
-    <t>التعد التنازلي ل بدء ليلة النصف من شعبان</t>
   </si>
   <si>
     <t>ليلة النصف من شعبان هي ليلة الخامس عشر من شهر شعبان، وهي الليلة التي تسبق يوم 15 شعبان، وتبدأ مع مغرب يوم 14 شعبان وتنتهي مع فجر يوم 15 شعبان. ليلة النصف من شعبان هي ليلة مميزة في التقويم الإسلامي، حيث يُعتقد أنها تحمل الكثير من الفضائل، ومنها مغفرة الذنوب. تُعتبر هذه الليلة فرصة للمسلمين للتقرب إلى الله من خلال الدعاء والعبادة. فقد ورد في الأحاديث النبوية الشريفة عن أهمية هذه الليلة وفضلها، حيث يُرفع فيها الأعمال إلى الله، ويُغفر فيها للمستغفرين.</t>
@@ -271,7 +196,491 @@
     <t>عبر موقعنا، يمكنكم الاطلاع على كافة المعلومات المتعلقة بليلة النصف من شعبان 2025، مثل: كم يتبقى على ليلة النصف، موعد ليلة النصف من شعبان 2025، تاريخ ليلة النصف من شعبان، ليلة النصف ٢٠٢٥، متى تكون ليلة النصف من شعبان 2025، وأول أيامها. كما يمكنكم معرفة المزيد حول أهمية ليلة النصف من شعبان، والأعمال المستحبة فيها، وكم يومًا يتبقى حتى حلول هذه الليلة المباركة. احصلوا على تفاصيل شاملة حول ليلة النصف من شعبان 2025، وتواريخ الاحتفال، والممارسات الفاضلة في تلك الليلة.</t>
   </si>
   <si>
-    <t xml:space="preserve">ليلة النصف من شعبان، كم باقي على الليلة، موعد ليلة النصف من شعبان 2025، تاريخ ليلة النصف من شعبان، ليلة النصف من شعبان المباركة، متى تكون ليلة النصف من شعبان 2025، أول أيام ليلة النصف من شعبان، كم باقي للاحتفال، فضل ليلة النصف من شعبان، أعمال ليلة النصف من شعبان، كم باقي على ليلة النصف من شعبان 2025، ليالي شعبان 2025، أهمية ليلة النصف من شعبان، متى النصف من شعبان 2025، العد التنازلي لليلة النصف من شعبان، دعاء ليلة النصف من شعبان._x000D__x000D__x000D__x000D__x000D_
+    <t>ليلة النصف من شعبان، العد التنازلي، كم باقي على الليلة، ليلة النصف من شعبان 2025، موعد ليلة النصف من شعبان، تاريخ ليلة النصف من شعبان 2025، متى تبدأ ليلة النصف من شعبان، فضل ليلة النصف من شعبان، متى ليلة النصف، أول أيام شهر شعبان 2025، ليلة النصف من شعبان 2025، كم باقي على ليلة النصف، كم باقي على الليلة، يوم ليلة النصف من شعبان 2025، متى تأتي ليلة النصف من شعبان، أول أيام ليلة النصف من شعبان المباركة 2025، كم باقي لهذه الليلة، ليلة النصف من شعبان، يوم النصف من شعبان 2025، كم باقي على ليلة النصف 2025، كم باقي على الليلة 2025، ليلة النصف المباركة، تاريخ ليلة النصف من شعبان 2025، متى الليلة 2025</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_رأس_السنة_الهجرية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رأس السنة الهجرية هي بداية العام الجديد في التقويم الإسلامي، وتُعتبر مناسبة دينية كبيرة للمسلمين. تبدأ السنة الهجرية مع شهر محرم، وهو الشهر الذي هاجر فيه النبي محمد صلى الله عليه وسلم من مكة إلى المدينة، معلنًا بذلك بداية التقويم الهجري الذي يعتمد على القمر. المسلمون يحيون هذه المناسبة بالذكر والدعاء، وتعتبر فرصة للتأمل في الهجرة النبوية والتضحية التي قام بها المسلمون في بداية الإسلام، والاحتفاء برأس السنة الهجرية يتم عبر مختلف البلدان الإسلامية بطريقة فريدة.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">إن رأس السنة الهجرية ليس مجرد بداية لعام جديد في التقويم، بل هو مناسبة تُذكر الأمة بأهمية الهجرة وما تمثله من تضحيات وآلام وآمال. يحتفل المسلمون بهذه المناسبة ليس فقط كذكرى تاريخية، بل كفرصة للتأمل والتفكر في مسيرة الأمة، وتجديد العهد مع الله تعالى لبذل المزيد من الجهد في سبيل نشر القيم الإسلامية.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عبر موقعنا، يمكنكم الاطلاع على كافة المعلومات المتعلقة برأس السنة الهجرية 2025، مثل: كم يتبقى على رأس السنة الهجرية، موعد رأس السنة الهجرية 2025، تاريخ رأس السنة الهجرية، رأس السنة الهجرية 2025، متى تكون رأس السنة الهجرية 2025، وأول أيام شهر محرم. كما يمكنكم معرفة المزيد حول أهمية رأس السنة الهجرية، والأعمال المستحبة فيها، وكم يومًا يتبقى حتى حلول هذه المناسبة المباركة. احصلوا على تفاصيل شاملة حول رأس السنة الهجرية 2025، وتواريخ الاحتفال، والممارسات الفاضلة في هذه الليلة.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رأس السنة الهجرية، العد التنازلي، كم يتبقى على الليلة، رأس السنة الهجرية 2025، موعد رأس السنة الهجرية، تاريخ رأس السنة الهجرية 2025، متى تبدأ رأس السنة الهجرية، فضل رأس السنة الهجرية، متى رأس السنة، أول أيام شهر محرم 2025، رأس السنة الهجرية 2025، كم يتبقى على رأس السنة، يوم رأس السنة الهجرية 2025، متى تأتي رأس السنة الهجرية، أول أيام رأس السنة الهجرية المباركة 2025، كم يتبقى لهذه الليلة، رأس السنة الهجرية، يوم السنة الهجرية 2025، كم يتبقى على رأس السنة 2025، كم يتبقى على الليلة 2025، رأس السنة المباركة، تاريخ رأس السنة الهجرية 2025، متى الليلة 2025.
+</t>
+  </si>
+  <si>
+    <t>https://www.islamweb.net/ar/article/236752/%D8%A3%D9%87%D9%85%D9%8A%D8%A9-%D8%A7%D9%84%D8%AA%D9%82%D9%88%D9%8A%D9%85-%D8%A7%D9%84%D9%87%D8%AC%D8%B1%D9%8A</t>
+  </si>
+  <si>
+    <t>hijri-year.webp</t>
+  </si>
+  <si>
+    <t>2025-06-26T00:00:00</t>
+  </si>
+  <si>
+    <t>إسلام ويب - اهمية التقويم الهجري</t>
+  </si>
+  <si>
+    <t xml:space="preserve">في بداية كل سنة هجرية يعمد أهل مكة الى تلاوة الصلوات، وتبادل التبركات برأس السنة الهجرية، ويأخذ العيد طابعًا تطغى عليه الفرحة، وتمارس فيه جملة من العادات والتقاليد المترسخة في الذاكرة والمتوارثة على مرّ السنوات، ومن عاداتهم المعروفة أنهم يتناولون في هذا العيد أطباق مميزة، وذلك من باب التفاؤل بحلول سنة جديدة عساها تحمل الاخضرار الى بلدهم والخير الى أهلها.[٧] إن رأس السنة الهجرة من المناسبات الخاصة عند المسلمين، ويحتفل فيه المسلمون كل عام بداية في العام الهجري -الأول من شهر محرم-، لما له من أهمية كبيرة في تذكير بالمسلمين بأحداث هجرة النبي -صلى الله عليه وسلم-، ويتم تحديد ذلك اليوم حسب التقويم القمري؛ فالسنة الهجرية تختلف عن الميلادية باختلاف التقويم الشمسي عن القمري، ويحتفل المسلمين في هذا اليوم تعبيراً عن فرحهم بقدومه بعادات تختلف من مكان لآخر.
+</t>
+  </si>
+  <si>
+    <t>https://www.aljazeera.net/misc/2024/3/12/%D9%85%D8%AA%D9%89-%D9%85%D9%88%D8%B9%D8%AF-%D8%B9%D9%8A%D8%AF-%D8%A7%D9%84%D9%81%D8%B7%D8%B1-2024-1445-%D9%88%D9%83%D9%85-%D8%B9%D8%AF%D8%AF-%D8%A3%D9%8A%D8%A7%D9%85</t>
+  </si>
+  <si>
+    <t>https://mawdoo3.com/%D8%A8%D8%AD%D8%AB_%D8%AD%D9%88%D9%84_%D8%B9%D9%8A%D8%AF_%D8%A7%D9%84%D8%A3%D8%B6%D8%AD%D9%89</t>
+  </si>
+  <si>
+    <t>موضوع - بحث حول عيد الأضحى</t>
+  </si>
+  <si>
+    <t>الجزيرة - التقويم الهجري</t>
+  </si>
+  <si>
+    <t>https://www.aljazeera.net/encyclopedia/2015/7/1/%D8%B4%D9%87%D8%B1-%D8%B1%D9%85%D8%B6%D8%A7%D9%86</t>
+  </si>
+  <si>
+    <t>الجزيرة - رمضان.. الشهر الفضيل</t>
+  </si>
+  <si>
+    <t>https://www.aljazeera.net/blogs/2023/3/6/%D9%84%D9%8A%D9%84%D8%A9-%D8%A7%D9%84%D9%86%D8%B5%D9%81-%D9%85%D9%86-%D8%B4%D8%B9%D8%A8%D8%A7%D9%86-%D8%A3%D8%AD%D9%83%D8%A7%D9%85-%D9%88%D9%81%D8%B6%D8%A7%D8%A6%D9%84</t>
+  </si>
+  <si>
+    <t>الجزيرة - ليلة النصف من شعبان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">من آداب الاحتفال بعيد الأم
+ـ التعبير عن التقدير والامتنان للأمهات من خلال الكلمات الطيبة والهدايا المميزة.
+ـ قضاء وقت مميز مع الأم والاحتفال معها بطرق مختلفة كتناول وجبة معاً أو الخروج في نزهة.
+ـ تذكير الأمهات بأهميتهن ودورهن الكبير في حياة الأسرة والمجتمع.
+</t>
+  </si>
+  <si>
+    <t>mother-day.webp</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_عيد_الام</t>
+  </si>
+  <si>
+    <t>2025-03-21T00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عيد الأم هو مناسبة مميزة يحتفل بها الناس في العديد من البلدان حول العالم، تكريمًا للأمهات وتعبيرًا عن الحب والامتنان لتضحياتهن. يُحتفل بعيد الأم في أيام مختلفة في البلدان الإسلامية، حيث يتذكر الأبناء الأدوار المهمة التي لعبتها أمهاتهم في حياتهم. تعتبر هذه المناسبة فرصة لتقديم الهدايا، والكتابات العاطفية، والعبارات الجميلة التي تعبر عن المشاعر، بالإضافة إلى قضاء الوقت مع الأمهات كنوع من الاحتفاء بمكانتهن. عيد الأم يُعزز الروابط الأسرية ويشجع على نشر قيم الحب والتقدير بين الأجيال، ويأتي بتقاليد متنوعة تعكس الثقافة الخاصة بكل مجتمع.
+</t>
+  </si>
+  <si>
+    <t>عبر موقعنا، يمكنكم الاطلاع على كافة المعلومات المتعلقة بعيد الأم 2025، مثل: كم يتبقى على عيد الأم، موعد عيد الأم 2025، وأهمية هذه المناسبة. كما يمكنكم معرفة المزيد حول تقاليد الاحتفال بعيد الأم، وكيفية تكريم الأمهات في هذا اليوم المميز، وما هي الهدايا والأفعال التي تعبر عن مشاعر الحب والامتنان. احصلوا على تفاصيل شاملة حول عيد الأم 2025، وأفكار للاحتفال، وكيفية تقدير دور الأمهات في حياتنا</t>
+  </si>
+  <si>
+    <t>عيد الأم، العد التنازلي، كم يتبقى على الاحتفال، عيد الأم 2025، موعد عيد الأم، تاريخ عيد الأم 2025، متى يبدأ عيد الأم، فضل عيد الأم، متى عيد الأم، أول أيام الاحتفال بعيد الأم 2025، عيد الأم 2025، كم يتبقى على عيد الأم، يوم عيد الأم 2025، متى يأتي عيد الأم، أول أيام عيد الأم المبارك 2025، كم يتبقى لهذا اليوم، عيد الأم، يوم عيد الأم 2025، كم يتبقى على عيد الأم 2025، كم يتبقى للاحتفال 2025، عيد الأم المبارك، تاريخ عيد الأم 2025، متى يأتي الاحتفال 2025.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">إن عيد الأم ليس مجرد مناسبة للاحتفال، بل هو تذكير لنا بأهمية الأمهات وما يمثلهن من تضحيات وآلام وآمال. يحتفل الناس في هذا اليوم تكريمًا للأمهات، ليس فقط كذكرى سنوية، بل كفرصة للتعبير عن الحب والامتنان لهن. إنه وقت للتأمل في دور الأمهات في حياتنا وتجديد العهد بمساندتهن ودعمهُن، وتقدير القيم الإنسانية التي يُعززنها في أسرنا. ويختلف تاريخ الاحتفال بعيد الأم من دولة إلى أخرى، إذ يصادف الاحتفال بعيد الأم في العالم العربي 21 مارس/آذار من كل عام.
+</t>
+  </si>
+  <si>
+    <t>https://www.bbc.com/arabic/world-47654180#:~:text=%D9%88%D9%8A%D8%B9%D8%AF%20%D8%A7%D9%84%D8%A7%D8%AD%D8%AA%D9%81%D8%A7%D9%84%20%D8%A8%D8%B9%D9%8A%D8%AF%20%D8%A7%D9%84%D8%A3%D9%85%20%D9%85%D9%86,%D9%85%D8%A7%D8%B1%D8%B3%2F%D8%A2%D8%B0%D8%A7%D8%B1%20%D9%85%D9%86%20%D9%83%D9%84%20%D8%B9%D8%A7%D9%85.</t>
+  </si>
+  <si>
+    <t>BBC - عيد الأم</t>
+  </si>
+  <si>
+    <t>prophet-day.webp</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_المولد_النبوي</t>
+  </si>
+  <si>
+    <t>2025-09-05T00:00:00</t>
+  </si>
+  <si>
+    <t>المولد النبوي أو مولد الرسول هو ذكرى سنوية في يوم مولد النبي محمد بن عبد الله في 12 ربيع الأول حسب أشهر الأقوال عند أهل السنّة أو 17 ربيع الأول حسب المنظور الشيعي. حيث يحتفل به المسلمون في كل عام في بعض الدول الإسلامية ليس باعتباره عيدًا أو عبادة بل فرحة بولادة نبيهم رسول الله محمد بن عبد الله.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">إنّ محبة رسول الله -صلى الله عليه وسلم- أصل من أصول الإيمان؛ لأنّ المحبة القلبية هي أُولى علامات الإقرار والاعتراف بفضل المحبوب ودليل على مكانته في قلب المُحب. ومن هنا جاء قول الرسول الكريم: (لَا يُؤْمِنُ أحَدُكُمْ، حتَّى أكُونَ أحَبَّ إلَيْهِ مِن والِدِهِ ووَلَدِهِ والنَّاسِ أجْمَعِينَ)، فرسول الله -صلى الله عليه وسلم- هو المعصوم الذي يتعلق فلاحنا ونجاتنا باتباعه، فيجب أن تغلب محبته محبة كل أحدٍ من الخلق، حتى لو كان الوالد أو الابن الذين فطر الله الخلق على محبتهما. وهذه المحبّة ما هي إلا ردٌّ لبعض الجميل، نقابل به فضلَ رسول -صلى الله عليه وسلم- علينا؛ لأنه بذل من جهده وراحته ما يعجز عنه أصبر الرجال، وحرص على مصير أمته وتبليغها رسالة ربها، قال -تعالى-: (لَقَد جاءَكُم رَسولٌ مِن أَنفُسِكُم عَزيزٌ عَلَيهِ ما عَنِتُّم حَريصٌ عَلَيكُم بِالمُؤمِنينَ رَءوفٌ رَحيمٌ)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أكدت دار الافتاء في مصر ان المراد من الاحتفال بذكرى مولد النبي الشريف: إظهار الفرح في هذا اليوم، ويُقصَد به تجمع الناس على الذكر، والإنشاد في مدحه والثناء عليه صلى الله عليه وآله وسلم، وإطعام الطعام صدقة لله، والصيام، والقيام؛ إعلانًا لمحبة سيدنا رسول الله صلى الله عليه وآله وسلم، وإعلانًا للفرح بيوم مجيئه الكريم صلى الله عليه وآله وسلم إلى الدنيا؛ فيكون الاحتفال بالمولد النبوي الشريف بكل أنواع القربات التي يتقرب بها الإنسان إلى الله تعالى.
+والاحتفال بـ مولد النبي الشريف تعظيمٌ واحتفاءٌ وفرحٌ بالحبيب المصطفى صلى الله عليه وآله وسلم، والاحتفاءُ والفرح به أمرٌ مقطوع بمشروعيته؛ لأنَّه عنوان محبته صلى الله عليه وآله وسلم التي هي ركن الإيمان.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عبر موقعنا، يمكنكم الاطلاع على كافة المعلومات المتعلقة بالمولد النبوي الشريف 2025، مثل: كم يتبقى على المولد النبوي، موعد المولد النبوي 2025، وأهمية هذه المناسبة. كما يمكنكم معرفة المزيد حول تقاليد الاحتفال بالمولد النبوي، وكيفية إحياء ذكرى ميلاد النبي محمد صلى الله عليه وسلم في هذا اليوم المميز، وما هي الأنشطة والأفعال التي تعبر عن محبتنا للنبي. احصلوا على تفاصيل شاملة حول المولد النبوي 2025، وأفكار للاحتفال، وكيفية تعزيز روح المحبة والتسامح التي دعا إليها النبي في حياتنا.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المولد النبوي الشريف، العد التنازلي، كم يتبقى على الاحتفال، المولد النبوي 2025، موعد المولد النبوي، تاريخ المولد النبوي 2025، متى يبدأ المولد النبوي، فضل المولد النبوي، متى المولد النبوي، أول أيام الاحتفال بالمولد النبوي 2025، المولد النبوي 2025، كم يتبقى على المولد النبوي، يوم المولد النبوي 2025، متى يأتي المولد النبوي، أول أيام المولد النبوي المبارك 2025، كم يتبقى لهذا اليوم، المولد النبوي، يوم المولد النبوي 2025، كم يتبقى على المولد النبوي 2025، كم يتبقى للاحتفال 2025، المولد النبوي المبارك، تاريخ المولد النبوي 2025، متى يأتي الاحتفال 2025.
+</t>
+  </si>
+  <si>
+    <t>https://www.youm7.com/story/2023/9/26/%D8%AF%D8%A7%D8%B1-%D8%A7%D9%84%D8%A5%D9%81%D8%AA%D8%A7%D8%A1-%D8%AA%D9%88%D8%B6%D8%AD-%D8%A7%D9%84%D9%85%D8%B1%D8%A7%D8%AF-%D8%A8%D8%A7%D9%84%D8%A7%D8%AD%D8%AA%D9%81%D8%A7%D9%84-%D8%A8%D9%80-%D9%85%D9%88%D9%84%D8%AF-%D8%A7%D9%84%D9%86%D8%A8%D9%8A-%D8%A7%D9%84%D8%B4%D8%B1%D9%8A%D9%81-%D9%88%D9%83%D9%8A%D9%81%D9%8A%D8%AA%D9%87/6316585</t>
+  </si>
+  <si>
+    <t>اليوم السابع - الاحتفال بـ مولد النبي الشريف</t>
+  </si>
+  <si>
+    <t>new-year.webp</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_السنة_الميلاد</t>
+  </si>
+  <si>
+    <t>2025-01-01T00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> رأس السنة الميلادية هي مناسبة يحتفل بها الناس حول العالم مع نهاية شهر ديسمبر وبداية شهر يناير من كل عام ميلادي. تبدأ السنة الميلادية في اليوم الأول من شهر يناير، ويعتبر هذا اليوم بداية جديدة حسب التقويم الميلادي الشمسي. يحتفل العديد من الناس برأس السنة الميلادية بإقامة الاحتفالات، تبادل الهدايا، وإطلاق الألعاب النارية، مما يجعلها مناسبة خاصة للتفكير في العام الماضي والتطلع إلى عام جديد مليء بالآمال والطموحات.</t>
+  </si>
+  <si>
+    <t>يحتفل الناس برأس السنة الميلادية ليس فقط كبداية لعام جديد، ولكن كفرصة للاحتفال بالحياة وتبادل الأمنيات. تُمثل هذه المناسبة أملًا للبداية الجديدة، وتتيح فرصة للتأمل والتفكر في النجاحات والإخفاقات في العام السابق، مع تمنيات أن يكون العام الجديد أفضل وأجمل.</t>
+  </si>
+  <si>
+    <t>يبدأ التحضير لرأس السنة الميلادية قبل أسابيع من موعدها. يزين الناس منازلهم، وتحضر الأماكن العامة للاحتفالات الكبرى. المدن الكبرى مثل نيويورك، لندن، وسيدني تحتضن احتفالات ضخمة بالألعاب النارية والعروض الفنية. وفي ليلة رأس السنة، يتجمع الأصدقاء والعائلات للاحتفال معًا، وإطلاق الألعاب النارية مع دخول الساعة 12:00 منتصف الليل.</t>
+  </si>
+  <si>
+    <t>تعتبر رأس السنة الميلادية فرصة لبداية جديدة والاحتفال بالأمل والتفاؤل. بغض النظر عن المكان أو الطريقة التي يحتفل بها الناس، فإنها تبقى مناسبة عالمية للتفكير في المستقبل والأماني بأن يحمل العام القادم الخير والنجاح للجميع.</t>
+  </si>
+  <si>
+    <t>2025، موعد رأس السنة الميلادية، تاريخ رأس السنة الميلادية 2025، متى تبدأ رأس السنة الميلادية، احتفالات رأس السنة، أول أيام شهر يناير 2025، رأس السنة 2025، كم يتبقى على رأس السنة، يوم رأس السنة الميلادية 2025، متى تأتي رأس السنة الميلادية، كم يتبقى لهذه الليلة، رأس السنة الميلادية، يوم السنة الميلادية 2025، كم يتبقى على رأس السنة 2025، رأس السنة المباركة، تاريخ رأس السنة الميلادية 2025، متى الليلة 2025.</t>
+  </si>
+  <si>
+    <t>https://mawdoo3.com/%D9%85%D8%A7_%D9%87%D9%8A_%D8%B1%D8%A3%D8%B3_%D8%A7%D9%84%D8%B3%D9%86%D8%A9_%D8%A7%D9%84%D9%85%D9%8A%D9%84%D8%A7%D8%AF%D9%8A%D8%A9</t>
+  </si>
+  <si>
+    <t>موضوع - رأس السنة الميلادية</t>
+  </si>
+  <si>
+    <t>summer.webp</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_الصيف</t>
+  </si>
+  <si>
+    <t>2025-06-21T00:00:00</t>
+  </si>
+  <si>
+    <t>فصل الصيف هو أحد فصول السنة الأربعة، ويبدأ في النصف الشمالي من الكرة الأرضية في 21 يونيو من كل عام. يتميز بطقسه الحار وأيامه الطويلة ويعتبر وقت العطلات والرحلات الصيفية والأنشطة الخارجية.</t>
+  </si>
+  <si>
+    <t>فصل الصيف مهم للزراعة والنمو النباتي، ويعتبره الكثيرون فترة للاسترخاء والعطلات. كما يتميز بأنه فترة السفر والسياحة، حيث يفضل الناس زيارة الشواطئ والأماكن المفتوحة للاستمتاع بالطقس الحار.</t>
+  </si>
+  <si>
+    <t>استعدادات فصل الصيف تتضمن تجهيز الملابس الصيفية والخطط للعطلات والأنشطة الخارجية. كما يعد هذا الوقت المثالي للاستمتاع بالبحر والشواطئ، وتعتبره العائلات وقتًا للرحلات والترفيه.</t>
+  </si>
+  <si>
+    <t>فصل الصيف فرصة للراحة والاسترخاء بعد الشهور الباردة. يحتفل الناس بقدومه بالذهاب إلى الشواطئ والمناطق المفتوحة، ويعتبر فصلًا مليئًا بالحيوية والأنشطة الممتعة في الهواء الطلق.</t>
+  </si>
+  <si>
+    <t>فصل الصيف، العد التنازلي، كم يتبقى على فصل الصيف، بداية الصيف 2025، موعد فصل الصيف 2025، متى يبدأ الصيف، الأنشطة الصيفية، السفر في الصيف، عطلات الصيف، كم يتبقى على الصيف، كم باقي على بداية الصيف، العد التنازلي لبداية الصيف.</t>
+  </si>
+  <si>
+    <t>winter.webp</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_الشتاء</t>
+  </si>
+  <si>
+    <t>2025-12-21T00:00:00</t>
+  </si>
+  <si>
+    <t>فصل الشتاء هو أحد الفصول الأربعة، ويبدأ في النصف الشمالي من الكرة الأرضية في 21 ديسمبر من كل عام. يتميز بانخفاض درجات الحرارة وقصر النهار وزيادة هطول الأمطار وتساقط الثلوج.</t>
+  </si>
+  <si>
+    <t>فصل الشتاء يعتبر من الفصول الضرورية للطبيعة حيث يساهم في تجديد مصادر المياه وتغذية الأرض. كما أنه فصل هادئ يستمتع الناس فيه بالدفء والاسترخاء بعيدًا عن الأنشطة الخارجية.</t>
+  </si>
+  <si>
+    <t>استعدادات فصل الشتاء تشمل تحضير الملابس الثقيلة والتدفئة في المنازل. يتميز هذا الفصل بأنه فرصة للاستمتاع بالأمطار والثلوج، بالإضافة إلى الاسترخاء في المنزل وتناول الأطعمة الدافئة.</t>
+  </si>
+  <si>
+    <t>فصل الشتاء يعد فرصة للاسترخاء والاستمتاع بالأجواء الباردة والحميمية داخل المنازل. يعتبره البعض فصلًا مثاليًا للتأمل والتفكر أو الاستمتاع بالأنشطة الشتوية مثل التزلج.</t>
+  </si>
+  <si>
+    <t>فصل الشتاء، العد التنازلي، كم يتبقى على فصل الشتاء، بداية الشتاء 2025، موعد فصل الشتاء 2025، متى يبدأ الشتاء، الأنشطة الشتوية، الثلوج، المطر، برد الشتاء، كم يتبقى على الشتاء، العد التنازلي لبداية الشتاء.</t>
+  </si>
+  <si>
+    <t>autumn.webp</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_الخريف</t>
+  </si>
+  <si>
+    <t>2025-09-23T00:00:00</t>
+  </si>
+  <si>
+    <t>فصل الخريف هو أحد الفصول الأربعة، ويبدأ في 23 سبتمبر من كل عام. يتميز بتغير لون أوراق الأشجار وتساقطها، ويعتبر وقتًا مناسبًا للحصاد في الكثير من المناطق.</t>
+  </si>
+  <si>
+    <t>فصل الخريف يمثل نهاية فترة النمو الزراعي وبداية التحضيرات للشتاء. وهو فصل يرتبط بالحصاد وجني الثمار، ويعتبره الناس فترة للتجديد والاستعداد للتغيرات القادمة في الشتاء.</t>
+  </si>
+  <si>
+    <t>استعدادات فصل الخريف تشمل التحضير لانخفاض درجات الحرارة والتغيرات في الطقس. كما يعتبر هذا الوقت مناسبًا للزراعة والأنشطة الخارجية الخفيفة قبل حلول الشتاء.</t>
+  </si>
+  <si>
+    <t>فصل الخريف يعد فرصة للتأمل في تغيرات الطبيعة والاستمتاع بالألوان الخريفية والهواء المنعش. يعتبره الكثيرون فصلًا هادئًا ومريحًا قبل بداية البرودة القاسية في الشتاء.</t>
+  </si>
+  <si>
+    <t>فصل الخريف، العد التنازلي، كم يتبقى على فصل الخريف، بداية الخريف 2025، موعد فصل الخريف 2025، متى يبدأ الخريف، الأنشطة الخريفية، حصاد الخريف، الألوان الخريفية، كم يتبقى على الخريف، العد التنازلي لبداية الخريف.</t>
+  </si>
+  <si>
+    <t>spring.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كم_باقي_على_الربيع	</t>
+  </si>
+  <si>
+    <t>2025-03-20T00:00:00</t>
+  </si>
+  <si>
+    <t>فصل الربيع هو أحد الفصول الأربعة، ويبدأ في 20 مارس من كل عام. يتميز بتفتح الأزهار واعتدال الطقس، ويعد من الفصول المفضلة بسبب جمال الطبيعة وانتعاشها.</t>
+  </si>
+  <si>
+    <t>فصل الربيع يعد فرصة لتجديد النشاط والاستمتاع بجمال الطبيعة بعد الشتاء. يعتبره الكثيرون فرصة للتنزه والاستمتاع بالطقس المعتدل والنباتات المزهرة.</t>
+  </si>
+  <si>
+    <t>استعدادات فصل الربيع تشمل التحضير للنزهات والأنشطة الخارجية، بالإضافة إلى تنظيف الحدائق وزراعة النباتات. يعتبر فصل الربيع فرصة ممتازة لتجديد النشاط والتخطيط للمشاريع القادمة.</t>
+  </si>
+  <si>
+    <t>فصل الربيع يعتبر فرصة ممتازة للاستمتاع بالطبيعة والتجدد بعد الشتاء الطويل. يعد هذا الفصل وقتًا مثاليًا للاستمتاع بالأنشطة الخارجية وجمال الأزهار المتفتحة.</t>
+  </si>
+  <si>
+    <t>فصل الربيع، العد التنازلي، كم يتبقى على فصل الربيع، بداية الربيع 2025، موعد فصل الربيع 2025، متى يبدأ الربيع، الأنشطة الربيعية، تفتح الأزهار، الطبيعة، جمال الطبيعة، كم يتبقى على الربيع</t>
+  </si>
+  <si>
+    <t>worldcup.webp</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_كأس_العالم</t>
+  </si>
+  <si>
+    <t>2026-06-08T00:00:00</t>
+  </si>
+  <si>
+    <t>العد التنازلي ل بدء ليلة النصف من شعبان</t>
+  </si>
+  <si>
+    <t>العد التنازلي لبدء رأس السنة الهجرية</t>
+  </si>
+  <si>
+    <t>العد التنازلي لبدء عيد الأم</t>
+  </si>
+  <si>
+    <t>العد التنازلي لبدء المولد النبوي</t>
+  </si>
+  <si>
+    <t>العد التنازلي لبدء رأس السنة الميلادية</t>
+  </si>
+  <si>
+    <t>العد التنازلي لبدء فصل الصيف</t>
+  </si>
+  <si>
+    <t>العد التنازلي لبدء فصل الشتاء</t>
+  </si>
+  <si>
+    <t>العد التنازلي لبدء فصل الخريف</t>
+  </si>
+  <si>
+    <t>العد التنازلي لبدء فصل الربيع</t>
+  </si>
+  <si>
+    <t xml:space="preserve">العد التنازلي لبداية كأس العالم 2026	</t>
+  </si>
+  <si>
+    <t>كأس العالم هو بطولة عالمية لكرة القدم، تُقام كل أربع سنوات، حيث يتنافس أفضل المنتخبات الوطنية من جميع أنحاء العالم للفوز باللقب. بطولة 2026 ستُقام في عدة مدن في أمريكا الشمالية، وهي النسخة الـ23 من البطولة.</t>
+  </si>
+  <si>
+    <t>كأس العالم هو أكبر حدث رياضي عالمي، حيث يجمع مشجعي كرة القدم من مختلف الدول والثقافات في احتفال عالمي. ويعد هذا الحدث فرصة كبيرة للاعبين للتألق والمنتخبات لتحقيق المجد على المستوى الدولي.</t>
+  </si>
+  <si>
+    <t>تحضير كأس العالم يشمل تجهيز المنتخبات واستعدادات الملاعب والجماهير، ويستعد المشجعون حول العالم لمتابعة المباريات وتشجيع فرقهم المفضلة.</t>
+  </si>
+  <si>
+    <t>كأس العالم هو أكثر من مجرد بطولة رياضية، فهو مناسبة عالمية توحد الشعوب من خلال حب كرة القدم، ويعد فرصة للتواصل بين الثقافات والشعوب عبر الرياضة. يعتبره الكثيرون حدثًا ينتظرونه بفارغ الصبر كل أربع سنوات.</t>
+  </si>
+  <si>
+    <t>كأس العالم 2026، العد التنازلي، كم يتبقى على كأس العالم، بداية كأس العالم 2026، موعد كأس العالم 2026، المدن المستضيفة، المنتخبات المتأهلة، جدول المباريات، التذاكر، البطولة العالمية، كرة القدم العالمية، بطولة 2026، كأس العالم في أمريكا الشمالية.</t>
+  </si>
+  <si>
+    <t>arafah.webp</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_يوم_عرفة</t>
+  </si>
+  <si>
+    <t>2025-06-06T00:00:00</t>
+  </si>
+  <si>
+    <t>العد التنازلي ليوم عرفة</t>
+  </si>
+  <si>
+    <t>يوم عرفة هو اليوم التاسع من ذي الحجة، وهو من أعظم الأيام عند المسلمين. يقف فيه الحجاج على جبل عرفات، وهو ركن أساسي من مناسك الحج. أما غير الحجاج، فيصومون هذا اليوم لأنه من أعظم الأيام التي يكفر الله بها ذنوب السنة الماضية والقادمة.</t>
+  </si>
+  <si>
+    <t>يوم عرفة يحمل أهمية دينية عظيمة للمسلمين حول العالم، حيث يُعد من أفضل أيام العام. يُعتبر الوقوف بعرفات من أهم أركان الحج، وصيامه لغير الحجاج يكفر سنتين من الذنوب.</t>
+  </si>
+  <si>
+    <t>استعدادات يوم عرفة للحجاج تشمل الوصول إلى مكة المكرمة وأداء المناسك، أما لغير الحجاج فيتجهزون لصيام هذا اليوم المبارك والاستعداد للدعاء والعبادة.</t>
+  </si>
+  <si>
+    <t>يوم عرفة يُعد فرصة عظيمة للتوبة والدعاء، ويحتفل به المسلمون بالصيام والدعاء. الحجاج يعتبرونه ركنًا أساسيًا من الحج ويقفون في هذا اليوم العظيم على جبل عرفات.</t>
+  </si>
+  <si>
+    <t>يوم عرفة، العد التنازلي، كم يتبقى على يوم عرفة، فضل يوم عرفة، موعد يوم عرفة 2025، يوم عرفة للحجاج، الدعاء في يوم عرفة، صيام يوم عرفة، الوقوف على عرفات، متى يبدأ يوم عرفة 2025، أهمية يوم عرفة، كم باقي على يوم عرفة، متى يوم عرفة 2025.</t>
+  </si>
+  <si>
+    <t>2027-01-09T00:00:00</t>
+  </si>
+  <si>
+    <t>كأس آسيا هو بطولة كرة قدم يُنظمها الاتحاد الآسيوي، تُقام كل أربع سنوات. يتنافس فيها أفضل منتخبات القارة لتحقيق اللقب القاري.</t>
+  </si>
+  <si>
+    <t>كأس آسيا تمثل فرصة كبيرة للمنتخبات الآسيوية لإظهار مهاراتها وتنافسها على المستوى القاري، وهي تجذب ملايين المشجعين من جميع أنحاء القارة والعالم.</t>
+  </si>
+  <si>
+    <t>تحضيرات كأس آسيا تشمل تجهيز الفرق، التدريبات، وتحضيرات الملاعب. كما يعد المشجعون لتشجيع فرقهم المفضلة.</t>
+  </si>
+  <si>
+    <t>كأس آسيا تعد من أهم البطولات في قارة آسيا، حيث تجمع بين أفضل الفرق وتحتفل بالروح الرياضية والتنافس الشريف.</t>
+  </si>
+  <si>
+    <t>كأس آسيا، العد التنازلي، كم يتبقى على كأس آسيا، بداية كأس آسيا 2027، موعد كأس آسيا 2027، المدن المستضيفة، المنتخبات المتأهلة، جدول المباريات، التذاكر، البطولة الآسيوية، كرة القدم الآسيوية.</t>
+  </si>
+  <si>
+    <t>2028-07-14T00:00:00</t>
+  </si>
+  <si>
+    <t>الأولمبياد هو حدث رياضي دولي يُقام كل أربع سنوات، حيث يتنافس فيه الرياضيون من مختلف البلدان في مجموعة متنوعة من الألعاب الرياضية.</t>
+  </si>
+  <si>
+    <t>الأولمبياد يعتبر الحدث الرياضي الأهم عالميًا، حيث يجمع الرياضيين من جميع أنحاء العالم ويحتفل بالروح الرياضية والتعاون بين الأمم.</t>
+  </si>
+  <si>
+    <t>تحضيرات الأولمبياد تشمل استعدادات الرياضيين، تجهيز المنشآت الرياضية، والتنسيق مع الدول المشاركة.</t>
+  </si>
+  <si>
+    <t>الأولمبياد هو أكثر من مجرد بطولة رياضية، إنه رمز للتعاون والسلام بين الأمم، حيث يتجمع الرياضيون من كل أنحاء العالم للاحتفال بإنجازاتهم وتفوقهم في الرياضة.</t>
+  </si>
+  <si>
+    <t>الأولمبياد، العد التنازلي، كم يتبقى على الأولمبياد، بداية الأولمبياد 2028، موعد الأولمبياد 2028، المدن المستضيفة، الرياضيون المشاركون، جدول المنافسات، التذاكر، الحدث الرياضي العالمي، الألعاب الأولمبية.</t>
+  </si>
+  <si>
+    <t>olympics.webp</t>
+  </si>
+  <si>
+    <t>asian-cup.webp</t>
+  </si>
+  <si>
+    <t>international-womens-day.webp</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_الأولمبياد</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_عيد_المرأة</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_كأس_آسيا</t>
+  </si>
+  <si>
+    <t>2025-03-08T00:00:00</t>
+  </si>
+  <si>
+    <t>عيد المرأة هو يوم عالمي يحتفل به في 8 مارس من كل عام، يهدف إلى تكريم إنجازات المرأة وتعزيز الوعي بحقوقها والمساواة بين الجنسين.</t>
+  </si>
+  <si>
+    <t>يمثل عيد المرأة فرصة للاحتفاء بالتقدم الذي حققته النساء على مر السنين، ويشجع على العمل المستمر من أجل حقوق المرأة والمساواة في جميع المجالات.</t>
+  </si>
+  <si>
+    <t>تحضيرات عيد المرأة تشمل تنظيم فعاليات، ورش عمل، ومحاضرات تهدف إلى رفع الوعي حول قضايا المرأة وتشجيع المناقشات حول حقوقها.</t>
+  </si>
+  <si>
+    <t>يعد عيد المرأة تذكيرًا بأهمية النضال من أجل حقوق المرأة وتحقيق المساواة. يتم الاحتفال بهذا اليوم من خلال الفعاليات والمبادرات التي تساهم في تعزيز دور المرأة في المجتمع.</t>
+  </si>
+  <si>
+    <t>عيد المرأة، العد التنازلي، كم يتبقى على عيد المرأة، بداية عيد المرأة 2025، موعد عيد المرأة، الفعاليات، النساء الرائدات، حقوق المرأة، المساواة، اليوم العالمي للمرأة، النشاطات الاحتفالية.</t>
+  </si>
+  <si>
+    <t>2025-11-28T00:00:00</t>
+  </si>
+  <si>
+    <t>بلاك فرايدي هو اليوم الذي يلي عيد الشكر في الولايات المتحدة، ويُعتبر بداية موسم التسوق للعطلات مع عروض وخصومات هائلة في مختلف المتاجر.</t>
+  </si>
+  <si>
+    <t>بلاك فرايدي أصبح حدثًا عالميًا يشمل الخصومات الكبرى على المنتجات والخدمات، ويعد فرصة مثالية للتسوق بأسعار مخفضة قبل موسم العطلات.</t>
+  </si>
+  <si>
+    <t>للتحضير لبلاك فرايدي، ينصح بتحديد قوائم التسوق مسبقًا، والاطلاع على العروض والخصومات التي تقدمها المتاجر، سواء كانت إلكترونية أو في المتاجر الفعلية.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بلاك فرايدي هو فرصة رائعة للمتسوقين للاستفادة من الخصومات والعروض الخاصة، ويشهد المتاجر ازدحامًا كبيرًا حيث يبحث المستهلكون عن أفضل العروض على المنتجات المختلفة.	</t>
+  </si>
+  <si>
+    <t>بلاك فرايدي، الجمعة السوداء، كم يتبقى على بلاك فرايدي، بداية بلاك فرايدي 2025، موعد بلاك فرايدي 2025، العروض الخاصة، خصومات المتاجر، التسوق الإلكتروني، المتاجر الإلكترونية، الجمعة السوداء 2025، التخفيضات السنوية، الخصومات الكبرى.</t>
+  </si>
+  <si>
+    <t>سكاي نيوز عربية - بلاك فرايدي</t>
+  </si>
+  <si>
+    <t>https://www.skynewsarabia.com/tag?s=%D8%A8%D9%84%D8%A7%D9%83%20%D9%81%D8%B1%D8%A7%D9%8A%D8%AF%D8%A7%D9%8A&amp;offset=24&amp;sort=DATE</t>
+  </si>
+  <si>
+    <t>black-friday.webp</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_بلاك_فرايدي</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_موسم_الحج</t>
+  </si>
+  <si>
+    <t>2025-06-04T00:00:00</t>
+  </si>
+  <si>
+    <t>موسم الحج هو أحد أكبر الشعائر الإسلامية حيث يجتمع المسلمون من مختلف أنحاء العالم في مكة المكرمة لأداء الفريضة التي تعد ركنًا من أركان الإسلام.</t>
+  </si>
+  <si>
+    <t>يمثل موسم الحج فرصة للمسلمين لأداء الركن الخامس من أركان الإسلام وتجديد الروحانية والإيمان، ويعتبر تجمعًا عالميًا لأداء مناسك الحج في مكة.</t>
+  </si>
+  <si>
+    <t>للتحضير لموسم الحج، ينصح بمتابعة الإجراءات المطلوبة للحصول على التصاريح، والتأكد من الجاهزية البدنية والنفسية، بالإضافة إلى الاطلاع على الفتاوى المتعلقة بأداء المناسك.</t>
+  </si>
+  <si>
+    <t>موسم الحج هو وقت مقدس للمسلمين يتضمن أداء الطواف والسعي والوقوف بعرفة، وغيرها من المناسك الروحية التي تؤدى على مدار عدة أيام.</t>
+  </si>
+  <si>
+    <t>موسم الحج، العد التنازلي، كم يتبقى على الحج، بداية موسم الحج 2025، موعد الحج 2025، مناسك الحج، العمرة، التصاريح، السفر إلى مكة، الحجاج، مناسك عرفة، كم باقي على موسم الحج، الاستعدادات للحج.</t>
+  </si>
+  <si>
+    <t>hajj-season.webp</t>
+  </si>
+  <si>
+    <t>العد التنازلي لبداية كأس آسيا</t>
+  </si>
+  <si>
+    <t>العد التنازلي لبداية الأولمبياد</t>
+  </si>
+  <si>
+    <t>العد التنازلي لبداية عيد المرأة</t>
+  </si>
+  <si>
+    <t>العد التنازلي لبداية بلاك فرايدي</t>
+  </si>
+  <si>
+    <t>العد التنازلي لبداية موسم الحج</t>
+  </si>
+  <si>
+    <t>2025-02-28T00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">يمكنكم من خلال العد التنازلي في الأسفل من معرفة كم باقي يوم على عيد الفطر بكل سهولة، حيث يبين لكم العد التنازلي لبداية عيد الفطر عدد الأيام المتبقية على عيد الفطر. يعد عيد الفطر المبارك من أهم الأعياد في العالم الإسلامي، ويأتي مباشرة بعد انتهاء شهر رمضان المبارك. الكثير من المسلمين حول العالم يتطلعون لمعرفة كم باقي على عيد الفطر 2025 للاحتفال بهذه المناسبة السعيدة. يمكنكم من خلال العد التنازلي في الأسفل معرفة كم باقي يوم على عيد الفطر بكل سهولة، حيث يبين لكم العد التنازلي لبداية عيد الفطر عدد الأيام المتبقية على حلول عيد الفطر المبارك، مع عرض المدة المتبقية بالشهور، الأسابيع، الأيام، الساعات وأيضًا بالتاريخ الهجري._x000D__x000D__x000D__x000D__x000D_
 _x000D__x000D__x000D__x000D__x000D_
 _x000D__x000D__x000D__x000D__x000D_
 _x000D__x000D__x000D__x000D__x000D_
@@ -280,201 +689,473 @@
 </t>
   </si>
   <si>
-    <t>ليلة النصف من شعبان، العد التنازلي، كم باقي على الليلة، ليلة النصف من شعبان 2025، موعد ليلة النصف من شعبان، تاريخ ليلة النصف من شعبان 2025، متى تبدأ ليلة النصف من شعبان، فضل ليلة النصف من شعبان، متى ليلة النصف، أول أيام شهر شعبان 2025، ليلة النصف من شعبان 2025، كم باقي على ليلة النصف، كم باقي على الليلة، يوم ليلة النصف من شعبان 2025، متى تأتي ليلة النصف من شعبان، أول أيام ليلة النصف من شعبان المباركة 2025، كم باقي لهذه الليلة، ليلة النصف من شعبان، يوم النصف من شعبان 2025، كم باقي على ليلة النصف 2025، كم باقي على الليلة 2025، ليلة النصف المباركة، تاريخ ليلة النصف من شعبان 2025، متى الليلة 2025</t>
-  </si>
-  <si>
-    <t>كم باقي على رأس السنة الهجرية</t>
-  </si>
-  <si>
-    <t>كم_باقي_على_رأس_السنة_الهجرية</t>
-  </si>
-  <si>
-    <t>رأس السنة الهجرية</t>
-  </si>
-  <si>
-    <t>يمكنكم من خلال العد التنازلي في الأعلى معرفة كم باقي يوم على رأس السنة الهجرية بكل سهولة، حيث يبين لكم العد التنازلي لبداية هذه الليلة عدد الأيام المتبقية. تعد رأس السنة الهجرية مناسبة إسلامية هامة يحتفل بها المسلمون حول العالم، حيث يحيون ذكرى هجرة النبي محمد صلى الله عليه وسلم من مكة إلى المدينة. يمكنكم من خلال العد التنازلي في الأعلى معرفة كم باقي يوم على هذه المناسبة السعيدة، مع عرض المدة المتبقية بالشهور، الأسابيع، الأيام، الساعات وأيضًا بالتاريخ الهجري</t>
-  </si>
-  <si>
-    <t>التعد التنازلي لبدء رأس السنة الهجرية</t>
-  </si>
-  <si>
-    <t xml:space="preserve">رأس السنة الهجرية هي بداية العام الجديد في التقويم الإسلامي، وتُعتبر مناسبة دينية كبيرة للمسلمين. تبدأ السنة الهجرية مع شهر محرم، وهو الشهر الذي هاجر فيه النبي محمد صلى الله عليه وسلم من مكة إلى المدينة، معلنًا بذلك بداية التقويم الهجري الذي يعتمد على القمر. المسلمون يحيون هذه المناسبة بالذكر والدعاء، وتعتبر فرصة للتأمل في الهجرة النبوية والتضحية التي قام بها المسلمون في بداية الإسلام، والاحتفاء برأس السنة الهجرية يتم عبر مختلف البلدان الإسلامية بطريقة فريدة.
+    <t>يمكنكم من خلال العد التنازلي في الأسفل من معرفة كم باقي يوم على عيد الأضحى بكل سهولة، حيث يبين لكم العد التنازلي لبداية عيد الأضحى عدد الأيام المتبقية على عيد الأضحى. يعد عيد الأضحى المبارك من أهم الأعياد في العالم الإسلامي، ويأتي مباشرة بعد انتهاء مناسك الحج في اليوم العاشر من شهر ذي الحجة. يعتبر هذا العيد رمزًا للتضحية والفداء، حيث يحيي المسلمون ذكرى قصة نبي الله إبراهيم عليه السلام وابنه إسماعيل. الكثير من المسلمين حول العالم يتطلعون لمعرفة كم باقي على عيد الأضحى للاحتفال بهذه المناسبة السعيدة. يمكنكم من خلال العد التنازلي في الأسفل معرفة كم باقي يوم على عيد الأضحى بكل سهولة، حيث يبين لكم العد التنازلي لبداية عيد الأضحى عدد الأيام المتبقية على حلول عيد الأضحى المبارك، مع عرض المدة المتبقية بالشهور، الأسابيع، الأيام، الساعات وأيضًا بالتاريخ الهجري. بالإضافة إلى ذلك، يُعتبر عيد الأضحى مرتبطًا ارتباطًا وثيقًا بمناسك الحج، حيث يؤدي الحجاج فريضة الحج قبل الاحتفال بهذا العيد.</t>
+  </si>
+  <si>
+    <t>يمكنكم من خلال العد التنازلي في الأسفل معرفة كم باقي يوم على حلول شهر رمضان بكل سهولة، حيث يبين لكم العد التنازلي لبداية شهر رمضان عدد الأيام المتبقية على شهر الصيام. يعد شهر رمضان المبارك من أهم الأشهر في العالم الإسلامي، حيث يُعتبر فرصة للتقرب إلى الله من خلال الصيام، الصلاة، وقراءة القرآن. يعتبر هذا الشهر رمزًا للتضحية والتسامح، حيث يحيي المسلمون ذكرى نزول القرآن. الكثير من المسلمين حول العالم يتطلعون لمعرفة كم باقي على رمضان للاحتفال بهذه المناسبة الروحية العظيمة. يمكنكم من خلال العد التنازلي في الأسفل معرفة كم باقي يوم على رمضان بكل سهولة، حيث يبين لكم العد التنازلي لبداية شهر رمضان عدد الأيام المتبقية على حلول شهر رمضان المبارك، مع عرض المدة المتبقية بالشهور، الأسابيع، الأيام، الساعات وأيضًا بالتاريخ الهجري. بالإضافة إلى ذلك، يُعتبر شهر رمضان مرتبطًا ارتباطًا وثيقًا بممارسة الطقوس الدينية، حيث يجتمع المسلمون للإفطار وصلاة التراويح وتعزيز الروابط الأسرية والاجتماعية.</t>
+  </si>
+  <si>
+    <t>يمكنكم من خلال العد التنازلي في الأسفل معرفة كم باقي يوم على ليلة النصف من شعبان بكل سهولة، حيث يبين لكم العد التنازلي لبداية هذه الليلة عدد الأيام المتبقية. تعد ليلة النصف من شعبان من الليالي المباركة، حيث يتطلع المسلمون حول العالم للاحتفال بها ويكثر الدعاء فيها. يمكنكم من خلال العد التنازلي في الأسفل معرفة كم باقي يوم على هذه المناسبة السعيدة، مع عرض المدة المتبقية بالشهور، الأسابيع، الأيام، الساعات وأيضًا بالتاريخ الهجري</t>
+  </si>
+  <si>
+    <t>يمكنكم من خلال العد التنازلي في الأسفل معرفة كم باقي يوم على رأس السنة الهجرية بكل سهولة، حيث يبين لكم العد التنازلي لبداية هذه الليلة عدد الأيام المتبقية. تعد رأس السنة الهجرية مناسبة إسلامية هامة يحتفل بها المسلمون حول العالم، حيث يحيون ذكرى هجرة النبي محمد صلى الله عليه وسلم من مكة إلى المدينة. يمكنكم من خلال العد التنازلي في الأسفل معرفة كم باقي يوم على هذه المناسبة السعيدة، مع عرض المدة المتبقية بالشهور، الأسابيع، الأيام، الساعات وأيضًا بالتاريخ الهجري</t>
+  </si>
+  <si>
+    <t xml:space="preserve">يمكنكم من خلال العد التنازلي في الأسفل معرفة كم باقي يوم على عيد الأم بكل سهولة، حيث يبين لكم العد التنازلي لبداية هذا اليوم المميز عدد الأيام المتبقية. يُعد عيد الأم مناسبة رائعة تُحتفل بها في العديد من البلدان، حيث يُعبّر الأبناء عن حبهم وامتنانهم لأمهاتهم. من خلال العد التنازلي في الأسفل، يمكنكم معرفة كم باقي يوم على هذه المناسبة السعيدة، مع عرض المدة المتبقية بالشهور، الأسابيع، الأيام، الساعات، وأيضًا بالتاريخ الميلادي.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">إن رأس السنة الهجرية ليس مجرد بداية لعام جديد في التقويم، بل هو مناسبة تُذكر الأمة بأهمية الهجرة وما تمثله من تضحيات وآلام وآمال. يحتفل المسلمون بهذه المناسبة ليس فقط كذكرى تاريخية، بل كفرصة للتأمل والتفكر في مسيرة الأمة، وتجديد العهد مع الله تعالى لبذل المزيد من الجهد في سبيل نشر القيم الإسلامية.
+    <t xml:space="preserve">يمكنكم من خلال العد التنازلي في الأسفل معرفة كم باقي يوم على المولد النبوي الشريف بكل سهولة، حيث يبين لكم العد التنازلي لبداية هذا اليوم المميز عدد الأيام المتبقية. يُعد المولد النبوي مناسبة رائعة تُحتفل بها في العديد من البلدان، حيث يُعبر المسلمون عن محبتهم واحتفائهم بميلاد النبي محمد صلى الله عليه وسلم. من خلال العد التنازلي في الأسفل، يمكنكم معرفة كم باقي يوم على هذه المناسبة السعيدة، مع عرض المدة المتبقية بالشهور، الأسابيع، الأيام، الساعات، وأيضًا بالتاريخ الميلادي.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">عبر موقعنا، يمكنكم الاطلاع على كافة المعلومات المتعلقة برأس السنة الهجرية 2025، مثل: كم يتبقى على رأس السنة الهجرية، موعد رأس السنة الهجرية 2025، تاريخ رأس السنة الهجرية، رأس السنة الهجرية 2025، متى تكون رأس السنة الهجرية 2025، وأول أيام شهر محرم. كما يمكنكم معرفة المزيد حول أهمية رأس السنة الهجرية، والأعمال المستحبة فيها، وكم يومًا يتبقى حتى حلول هذه المناسبة المباركة. احصلوا على تفاصيل شاملة حول رأس السنة الهجرية 2025، وتواريخ الاحتفال، والممارسات الفاضلة في هذه الليلة.
-</t>
-  </si>
-  <si>
-    <t>كم باقي على السنة الهجرية 2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">رأس السنة الهجرية، كم باقي على السنة الهجرية الجديدة، موعد رأس السنة الهجرية 2025، تاريخ رأس السنة الهجرية، رأس السنة الهجرية المباركة، متى تكون رأس السنة الهجرية 2025، أول أيام شهر محرم، كم باقي للاحتفال، فضل رأس السنة الهجرية، أعمال رأس السنة الهجرية، كم باقي على رأس السنة الهجرية 2025، مناسبات شهر محرم 2025، أهمية رأس السنة الهجرية، متى بداية محرم 2025، العد التنازلي لرأس السنة الهجرية، دعاء رأس السنة الهجرية.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">رأس السنة الهجرية، العد التنازلي، كم يتبقى على الليلة، رأس السنة الهجرية 2025، موعد رأس السنة الهجرية، تاريخ رأس السنة الهجرية 2025، متى تبدأ رأس السنة الهجرية، فضل رأس السنة الهجرية، متى رأس السنة، أول أيام شهر محرم 2025، رأس السنة الهجرية 2025، كم يتبقى على رأس السنة، يوم رأس السنة الهجرية 2025، متى تأتي رأس السنة الهجرية، أول أيام رأس السنة الهجرية المباركة 2025، كم يتبقى لهذه الليلة، رأس السنة الهجرية، يوم السنة الهجرية 2025، كم يتبقى على رأس السنة 2025، كم يتبقى على الليلة 2025، رأس السنة المباركة، تاريخ رأس السنة الهجرية 2025، متى الليلة 2025.
-</t>
-  </si>
-  <si>
-    <t>https://www.islamweb.net/ar/article/236752/%D8%A3%D9%87%D9%85%D9%8A%D8%A9-%D8%A7%D9%84%D8%AA%D9%82%D9%88%D9%8A%D9%85-%D8%A7%D9%84%D9%87%D8%AC%D8%B1%D9%8A</t>
-  </si>
-  <si>
-    <t>hijri-year.webp</t>
-  </si>
-  <si>
-    <t>كم باقي على ليلة النصف من شعبان</t>
-  </si>
-  <si>
-    <t>كم باقي على نصف شعبان 2025</t>
-  </si>
-  <si>
-    <t>2025-06-26T00:00:00</t>
-  </si>
-  <si>
-    <t>إسلام ويب - اهمية التقويم الهجري</t>
-  </si>
-  <si>
-    <t xml:space="preserve">في بداية كل سنة هجرية يعمد أهل مكة الى تلاوة الصلوات، وتبادل التبركات برأس السنة الهجرية، ويأخذ العيد طابعًا تطغى عليه الفرحة، وتمارس فيه جملة من العادات والتقاليد المترسخة في الذاكرة والمتوارثة على مرّ السنوات، ومن عاداتهم المعروفة أنهم يتناولون في هذا العيد أطباق مميزة، وذلك من باب التفاؤل بحلول سنة جديدة عساها تحمل الاخضرار الى بلدهم والخير الى أهلها.[٧] إن رأس السنة الهجرة من المناسبات الخاصة عند المسلمين، ويحتفل فيه المسلمون كل عام بداية في العام الهجري -الأول من شهر محرم-، لما له من أهمية كبيرة في تذكير بالمسلمين بأحداث هجرة النبي -صلى الله عليه وسلم-، ويتم تحديد ذلك اليوم حسب التقويم القمري؛ فالسنة الهجرية تختلف عن الميلادية باختلاف التقويم الشمسي عن القمري، ويحتفل المسلمين في هذا اليوم تعبيراً عن فرحهم بقدومه بعادات تختلف من مكان لآخر.
-</t>
-  </si>
-  <si>
-    <t>https://www.aljazeera.net/misc/2024/3/12/%D9%85%D8%AA%D9%89-%D9%85%D9%88%D8%B9%D8%AF-%D8%B9%D9%8A%D8%AF-%D8%A7%D9%84%D9%81%D8%B7%D8%B1-2024-1445-%D9%88%D9%83%D9%85-%D8%B9%D8%AF%D8%AF-%D8%A3%D9%8A%D8%A7%D9%85</t>
-  </si>
-  <si>
-    <t>https://mawdoo3.com/%D8%A8%D8%AD%D8%AB_%D8%AD%D9%88%D9%84_%D8%B9%D9%8A%D8%AF_%D8%A7%D9%84%D8%A3%D8%B6%D8%AD%D9%89</t>
-  </si>
-  <si>
-    <t>موضوع - بحث حول عيد الأضحى</t>
-  </si>
-  <si>
-    <t>الجزيرة - التقويم الهجري</t>
-  </si>
-  <si>
-    <t>https://www.aljazeera.net/encyclopedia/2015/7/1/%D8%B4%D9%87%D8%B1-%D8%B1%D9%85%D8%B6%D8%A7%D9%86</t>
-  </si>
-  <si>
-    <t>الجزيرة - رمضان.. الشهر الفضيل</t>
-  </si>
-  <si>
-    <t>https://www.aljazeera.net/blogs/2023/3/6/%D9%84%D9%8A%D9%84%D8%A9-%D8%A7%D9%84%D9%86%D8%B5%D9%81-%D9%85%D9%86-%D8%B4%D8%B9%D8%A8%D8%A7%D9%86-%D8%A3%D8%AD%D9%83%D8%A7%D9%85-%D9%88%D9%81%D8%B6%D8%A7%D8%A6%D9%84</t>
-  </si>
-  <si>
-    <t>الجزيرة - ليلة النصف من شعبان</t>
-  </si>
-  <si>
-    <t xml:space="preserve">من آداب الاحتفال بعيد الأم
-ـ التعبير عن التقدير والامتنان للأمهات من خلال الكلمات الطيبة والهدايا المميزة.
-ـ قضاء وقت مميز مع الأم والاحتفال معها بطرق مختلفة كتناول وجبة معاً أو الخروج في نزهة.
-ـ تذكير الأمهات بأهميتهن ودورهن الكبير في حياة الأسرة والمجتمع.
-</t>
-  </si>
-  <si>
-    <t>كم باقي على عيد الأم</t>
-  </si>
-  <si>
-    <t>كم باقي على عيد الأم 2025</t>
-  </si>
-  <si>
-    <t>mother-day.webp</t>
-  </si>
-  <si>
-    <t>كم_باقي_على_عيد_الام</t>
-  </si>
-  <si>
-    <t>عيد الأم</t>
-  </si>
-  <si>
-    <t>2025-03-21T00:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">يمكنكم من خلال العد التنازلي في الأعلى معرفة كم باقي يوم على عيد الأم بكل سهولة، حيث يبين لكم العد التنازلي لبداية هذا اليوم المميز عدد الأيام المتبقية. يُعد عيد الأم مناسبة رائعة تُحتفل بها في العديد من البلدان، حيث يُعبّر الأبناء عن حبهم وامتنانهم لأمهاتهم. من خلال العد التنازلي في الأعلى، يمكنكم معرفة كم باقي يوم على هذه المناسبة السعيدة، مع عرض المدة المتبقية بالشهور، الأسابيع، الأيام، الساعات، وأيضًا بالتاريخ الميلادي.
-</t>
-  </si>
-  <si>
-    <t>التعد التنازلي لبدء عيد الأم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عيد الأم هو مناسبة مميزة يحتفل بها الناس في العديد من البلدان حول العالم، تكريمًا للأمهات وتعبيرًا عن الحب والامتنان لتضحياتهن. يُحتفل بعيد الأم في أيام مختلفة في البلدان الإسلامية، حيث يتذكر الأبناء الأدوار المهمة التي لعبتها أمهاتهم في حياتهم. تعتبر هذه المناسبة فرصة لتقديم الهدايا، والكتابات العاطفية، والعبارات الجميلة التي تعبر عن المشاعر، بالإضافة إلى قضاء الوقت مع الأمهات كنوع من الاحتفاء بمكانتهن. عيد الأم يُعزز الروابط الأسرية ويشجع على نشر قيم الحب والتقدير بين الأجيال، ويأتي بتقاليد متنوعة تعكس الثقافة الخاصة بكل مجتمع.
-</t>
-  </si>
-  <si>
-    <t>عبر موقعنا، يمكنكم الاطلاع على كافة المعلومات المتعلقة بعيد الأم 2025، مثل: كم يتبقى على عيد الأم، موعد عيد الأم 2025، وأهمية هذه المناسبة. كما يمكنكم معرفة المزيد حول تقاليد الاحتفال بعيد الأم، وكيفية تكريم الأمهات في هذا اليوم المميز، وما هي الهدايا والأفعال التي تعبر عن مشاعر الحب والامتنان. احصلوا على تفاصيل شاملة حول عيد الأم 2025، وأفكار للاحتفال، وكيفية تقدير دور الأمهات في حياتنا</t>
-  </si>
-  <si>
-    <t>عيد الأم، كم باقي على عيد الأم 2025، موعد عيد الأم، تاريخ عيد الأم، عيد الأم المبارك، متى يكون عيد الأم 2025، أول أيام الاحتفال، كم باقي للاحتفال، فضل عيد الأم، أعمال عيد الأم، كم باقي على عيد الأم 2025، مناسبات شهر مارس 2025، أهمية عيد الأم، متى بداية الاحتفال بعيد الأم 2025، العد التنازلي لعيد الأم، دعاء للأمهات في عيد الأم</t>
-  </si>
-  <si>
-    <t>عيد الأم، العد التنازلي، كم يتبقى على الاحتفال، عيد الأم 2025، موعد عيد الأم، تاريخ عيد الأم 2025، متى يبدأ عيد الأم، فضل عيد الأم، متى عيد الأم، أول أيام الاحتفال بعيد الأم 2025، عيد الأم 2025، كم يتبقى على عيد الأم، يوم عيد الأم 2025، متى يأتي عيد الأم، أول أيام عيد الأم المبارك 2025، كم يتبقى لهذا اليوم، عيد الأم، يوم عيد الأم 2025، كم يتبقى على عيد الأم 2025، كم يتبقى للاحتفال 2025، عيد الأم المبارك، تاريخ عيد الأم 2025، متى يأتي الاحتفال 2025.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">إن عيد الأم ليس مجرد مناسبة للاحتفال، بل هو تذكير لنا بأهمية الأمهات وما يمثلهن من تضحيات وآلام وآمال. يحتفل الناس في هذا اليوم تكريمًا للأمهات، ليس فقط كذكرى سنوية، بل كفرصة للتعبير عن الحب والامتنان لهن. إنه وقت للتأمل في دور الأمهات في حياتنا وتجديد العهد بمساندتهن ودعمهُن، وتقدير القيم الإنسانية التي يُعززنها في أسرنا. ويختلف تاريخ الاحتفال بعيد الأم من دولة إلى أخرى، إذ يصادف الاحتفال بعيد الأم في العالم العربي 21 مارس/آذار من كل عام.
-</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/arabic/world-47654180#:~:text=%D9%88%D9%8A%D8%B9%D8%AF%20%D8%A7%D9%84%D8%A7%D8%AD%D8%AA%D9%81%D8%A7%D9%84%20%D8%A8%D8%B9%D9%8A%D8%AF%20%D8%A7%D9%84%D8%A3%D9%85%20%D9%85%D9%86,%D9%85%D8%A7%D8%B1%D8%B3%2F%D8%A2%D8%B0%D8%A7%D8%B1%20%D9%85%D9%86%20%D9%83%D9%84%20%D8%B9%D8%A7%D9%85.</t>
-  </si>
-  <si>
-    <t>BBC - عيد الأم</t>
-  </si>
-  <si>
-    <t>كم باقي على المولد النبوي</t>
-  </si>
-  <si>
-    <t>كم باقي على المولد النبوي 2025</t>
-  </si>
-  <si>
-    <t>prophet-day.webp</t>
-  </si>
-  <si>
-    <t>كم_باقي_على_المولد_النبوي</t>
-  </si>
-  <si>
-    <t>المولد النبوي</t>
-  </si>
-  <si>
-    <t>2025-09-05T00:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">يمكنكم من خلال العد التنازلي في الأعلى معرفة كم باقي يوم على المولد النبوي الشريف بكل سهولة، حيث يبين لكم العد التنازلي لبداية هذا اليوم المميز عدد الأيام المتبقية. يُعد المولد النبوي مناسبة رائعة تُحتفل بها في العديد من البلدان، حيث يُعبر المسلمون عن محبتهم واحتفائهم بميلاد النبي محمد صلى الله عليه وسلم. من خلال العد التنازلي في الأعلى، يمكنكم معرفة كم باقي يوم على هذه المناسبة السعيدة، مع عرض المدة المتبقية بالشهور، الأسابيع، الأيام، الساعات، وأيضًا بالتاريخ الميلادي.
-</t>
-  </si>
-  <si>
-    <t>التعد التنازلي لبدء المولد النبوي</t>
-  </si>
-  <si>
-    <t>المولد النبوي أو مولد الرسول هو ذكرى سنوية في يوم مولد النبي محمد بن عبد الله في 12 ربيع الأول حسب أشهر الأقوال عند أهل السنّة أو 17 ربيع الأول حسب المنظور الشيعي. حيث يحتفل به المسلمون في كل عام في بعض الدول الإسلامية ليس باعتباره عيدًا أو عبادة بل فرحة بولادة نبيهم رسول الله محمد بن عبد الله.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">إنّ محبة رسول الله -صلى الله عليه وسلم- أصل من أصول الإيمان؛ لأنّ المحبة القلبية هي أُولى علامات الإقرار والاعتراف بفضل المحبوب ودليل على مكانته في قلب المُحب. ومن هنا جاء قول الرسول الكريم: (لَا يُؤْمِنُ أحَدُكُمْ، حتَّى أكُونَ أحَبَّ إلَيْهِ مِن والِدِهِ ووَلَدِهِ والنَّاسِ أجْمَعِينَ)، فرسول الله -صلى الله عليه وسلم- هو المعصوم الذي يتعلق فلاحنا ونجاتنا باتباعه، فيجب أن تغلب محبته محبة كل أحدٍ من الخلق، حتى لو كان الوالد أو الابن الذين فطر الله الخلق على محبتهما. وهذه المحبّة ما هي إلا ردٌّ لبعض الجميل، نقابل به فضلَ رسول -صلى الله عليه وسلم- علينا؛ لأنه بذل من جهده وراحته ما يعجز عنه أصبر الرجال، وحرص على مصير أمته وتبليغها رسالة ربها، قال -تعالى-: (لَقَد جاءَكُم رَسولٌ مِن أَنفُسِكُم عَزيزٌ عَلَيهِ ما عَنِتُّم حَريصٌ عَلَيكُم بِالمُؤمِنينَ رَءوفٌ رَحيمٌ)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">أكدت دار الافتاء في مصر ان المراد من الاحتفال بذكرى مولد النبي الشريف: إظهار الفرح في هذا اليوم، ويُقصَد به تجمع الناس على الذكر، والإنشاد في مدحه والثناء عليه صلى الله عليه وآله وسلم، وإطعام الطعام صدقة لله، والصيام، والقيام؛ إعلانًا لمحبة سيدنا رسول الله صلى الله عليه وآله وسلم، وإعلانًا للفرح بيوم مجيئه الكريم صلى الله عليه وآله وسلم إلى الدنيا؛ فيكون الاحتفال بالمولد النبوي الشريف بكل أنواع القربات التي يتقرب بها الإنسان إلى الله تعالى.
-والاحتفال بـ مولد النبي الشريف تعظيمٌ واحتفاءٌ وفرحٌ بالحبيب المصطفى صلى الله عليه وآله وسلم، والاحتفاءُ والفرح به أمرٌ مقطوع بمشروعيته؛ لأنَّه عنوان محبته صلى الله عليه وآله وسلم التي هي ركن الإيمان.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عبر موقعنا، يمكنكم الاطلاع على كافة المعلومات المتعلقة بالمولد النبوي الشريف 2025، مثل: كم يتبقى على المولد النبوي، موعد المولد النبوي 2025، وأهمية هذه المناسبة. كما يمكنكم معرفة المزيد حول تقاليد الاحتفال بالمولد النبوي، وكيفية إحياء ذكرى ميلاد النبي محمد صلى الله عليه وسلم في هذا اليوم المميز، وما هي الأنشطة والأفعال التي تعبر عن محبتنا للنبي. احصلوا على تفاصيل شاملة حول المولد النبوي 2025، وأفكار للاحتفال، وكيفية تعزيز روح المحبة والتسامح التي دعا إليها النبي في حياتنا.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">المولد النبوي الشريف، كم يتبقى على المولد النبوي 2025، موعد المولد النبوي، تاريخ المولد النبوي، المولد النبوي المبارك، متى يكون المولد النبوي 2025، أول أيام الاحتفال، كم يتبقى للاحتفال، فضل المولد النبوي، أعمال المولد النبوي، كم يتبقى على المولد النبوي 2025، مناسبات شهر ربيع الأول 2025، أهمية المولد النبوي، متى بداية الاحتفال بالمولد النبوي 2025، العد التنازلي للمولد النبوي، دعاء في المولد النبوي.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">المولد النبوي الشريف، العد التنازلي، كم يتبقى على الاحتفال، المولد النبوي 2025، موعد المولد النبوي، تاريخ المولد النبوي 2025، متى يبدأ المولد النبوي، فضل المولد النبوي، متى المولد النبوي، أول أيام الاحتفال بالمولد النبوي 2025، المولد النبوي 2025، كم يتبقى على المولد النبوي، يوم المولد النبوي 2025، متى يأتي المولد النبوي، أول أيام المولد النبوي المبارك 2025، كم يتبقى لهذا اليوم، المولد النبوي، يوم المولد النبوي 2025، كم يتبقى على المولد النبوي 2025، كم يتبقى للاحتفال 2025، المولد النبوي المبارك، تاريخ المولد النبوي 2025، متى يأتي الاحتفال 2025.
-</t>
-  </si>
-  <si>
-    <t>https://www.youm7.com/story/2023/9/26/%D8%AF%D8%A7%D8%B1-%D8%A7%D9%84%D8%A5%D9%81%D8%AA%D8%A7%D8%A1-%D8%AA%D9%88%D8%B6%D8%AD-%D8%A7%D9%84%D9%85%D8%B1%D8%A7%D8%AF-%D8%A8%D8%A7%D9%84%D8%A7%D8%AD%D8%AA%D9%81%D8%A7%D9%84-%D8%A8%D9%80-%D9%85%D9%88%D9%84%D8%AF-%D8%A7%D9%84%D9%86%D8%A8%D9%8A-%D8%A7%D9%84%D8%B4%D8%B1%D9%8A%D9%81-%D9%88%D9%83%D9%8A%D9%81%D9%8A%D8%AA%D9%87/6316585</t>
-  </si>
-  <si>
-    <t>اليوم السابع - الاحتفال بـ مولد النبي الشريف</t>
+    <t>يمكنكم من خلال العد التنازلي في الأسفل معرفة كم باقي يوم على رأس السنة الميلادية بكل سهولة، حيث يبين لكم العد التنازلي لبداية هذه الليلة عدد الأيام المتبقية. تعد رأس السنة الميلادية مناسبة عالمية يحتفل بها الناس في جميع أنحاء العالم، حيث تضيء المدن بالألعاب النارية وتقام الاحتفالات في كل مكان، كما يتبادل الناس التهاني ويتمنون لبعضهم عامًا جديدًا مليئًا بالسعادة والنجاح.</t>
+  </si>
+  <si>
+    <t>يمكنكم من خلال العد التنازلي في الأسفل معرفة كم باقي يوم على بداية فصل الصيف بكل سهولة، حيث يبين لكم العد التنازلي عدد الأيام المتبقية حتى بداية هذا الفصل. يعد فصل الصيف من الفصول التي يحبها الناس نظرًا لأن الطقس يكون مشمسًا ودافئًا مما يتيح الفرصة للقيام بالكثير من الأنشطة في الهواء الطلق.</t>
+  </si>
+  <si>
+    <t>يمكنكم من خلال العد التنازلي في الأسفل معرفة كم باقي يوم على بداية فصل الشتاء بكل سهولة، حيث يبين لكم العد التنازلي عدد الأيام المتبقية حتى بداية هذا الفصل. يتميز فصل الشتاء بطقسه البارد وتساقط الثلوج في بعض المناطق، ويعد من الفصول التي يحبها البعض للاستمتاع بالدفء داخل المنازل والأجواء الشتوية المميزة.</t>
+  </si>
+  <si>
+    <t>يمكنكم من خلال العد التنازلي في الأسفل معرفة كم باقي يوم على بداية فصل الخريف بكل سهولة، حيث يبين لكم العد التنازلي عدد الأيام المتبقية حتى بداية هذا الفصل. يتميز فصل الخريف بتساقط أوراق الأشجار وانخفاض درجات الحرارة، ويعد من الفصول الانتقالية بين الصيف والشتاء.</t>
+  </si>
+  <si>
+    <t>يمكنكم من خلال العد التنازلي في الأسفل معرفة كم باقي يوم على بداية فصل الربيع بكل سهولة، حيث يبين لكم العد التنازلي عدد الأيام المتبقية حتى بداية هذا الفصل. يتميز فصل الربيع بتفتح الأزهار واعتدال الطقس، ويعد من الفصول التي يفضلها الكثيرون بسبب جمال الطبيعة وانتعاشها بعد فصل الشتاء.</t>
+  </si>
+  <si>
+    <t>يمكنكم من خلال العد التنازلي في الأسفل معرفة كم باقي يوم على بداية كأس العالم 2026 بكل سهولة. يوضح العد التنازلي عدد الأيام المتبقية حتى بداية هذا الحدث العالمي الكبير الذي ينتظره عشاق كرة القدم حول العالم.</t>
+  </si>
+  <si>
+    <t>يمكنكم من خلال العد التنازلي في الأسفل معرفة كم باقي يوم على يوم عرفة بكل سهولة. يوضح العد التنازلي عدد الأيام المتبقية حتى هذه المناسبة الإسلامية العظيمة. يوم عرفة هو اليوم التاسع من شهر ذي الحجة، ويعد من أفضل أيام العام عند الله ويجتمع فيه الحجاج على جبل عرفات لأداء أحد أهم مناسك الحج.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">يمكنكم من خلال العد التنازلي في الأسفل معرفة كم باقي يوم على بداية كأس آسيا 2027 بكل سهولة. يوضح العد التنازلي عدد الأيام المتبقية حتى بدء هذه البطولة الكبيرة التي تجمع أفضل المنتخبات الآسيوية.	</t>
+  </si>
+  <si>
+    <t>يمكنكم من خلال العد التنازلي في الأسفل معرفة كم باقي يوم على بداية الأولمبياد 2028 بكل سهولة. يوضح العد التنازلي عدد الأيام المتبقية حتى بدء هذا الحدث الرياضي العالمي الذي يجمع أفضل الرياضيين من جميع أنحاء العالم.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">يمكنكم من خلال العد التنازلي في الأسفل معرفة كم باقي يوم على عيد المرأة 2025 بكل سهولة. يوضح العد التنازلي عدد الأيام المتبقية حتى بدء هذا اليوم الذي يكرم إنجازات المرأة ويعزز الوعي بحقوقها.	</t>
+  </si>
+  <si>
+    <t>يمكنكم من خلال العد التنازلي في الأسفل معرفة كم باقي يوم على بلاك فرايدي 2025 بكل سهولة. يوضح العد التنازلي عدد الأيام المتبقية حتى بداية هذا اليوم الذي يعد من أكبر أيام الخصومات السنوية في المتاجر حول العالم.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">يمكنكم من خلال العد التنازلي في الأسفل معرفة كم باقي يوم على موسم الحج 2025 بكل سهولة. يوضح العد التنازلي عدد الأيام المتبقية حتى بداية هذا الموسم الذي يعد من أعظم الشعائر الإسلامية.	</t>
+  </si>
+  <si>
+    <t>israa-miraj.webp</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_الإسراء_والمعراج</t>
+  </si>
+  <si>
+    <t>الإسراء والمعراج 2025</t>
+  </si>
+  <si>
+    <t>2025-01-27T00:00:00</t>
+  </si>
+  <si>
+    <t>العد التنازلي للإسراء والمعراج</t>
+  </si>
+  <si>
+    <t>الاغتسال والتجمل للعيد، وقد نقل ذلك عن عدد من السلف من الصحابة ومن بعدهم، اقتداء بالنبي ـ صلى الله عليه وسلم ـ، قال ابن القيم: وكان ـ صلى الله عليه وسلم ـ يلبس لهما (أي للعيدين) أجمل ثيابه، وكان له حُلة يلبسها للعيدين والجمعة. والرجل يخرج على هذه الصفة من التجمل، وأما النساء فإنهن إذا خرجن لصلاة العيد وغيرها يخرجن على الصفة التي أذن بها لهن النبي ـ صلى الله عليه وسلم ـ إذا شهدن الصلاة حيث قال: (لا تمنعوا إماء الله مساجد الله ولكن ليخرجن وهن تَفِلات (غير متطيبات)) رواه أبو داود._x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D_
+قال ابن حجر: ويلحق بالطيب ما في معناه، لأن سبب المنع منه ما فيه من تحريك داعية الشهوة، كحسن الملبس والحلي الذي يظهر، والزينة الفاخرة، وكذا الاختلاط بالرجال._x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D_
+وفي عيد الفطر يُشرع التكبير من ليلة العيد حتى حضور الصلاة، حيث ثبت عنه ـ صلى الله عليه وسلم ـ أنه كان يُكبِّر في تلك الليلة، ويخرج المسلمون لأداء صلاة العيد بعد التكبير، لتكون مناسبة تعبير عن الفرح والشكر لله على نعمه، حيث يُعتبر العيد فرصة لتعزيز الروابط الاجتماعية وتقديم الزكاة والفطرة في سبيل الله.</t>
+  </si>
+  <si>
+    <t>لاغتسال والتجمل للعيد، وقد نقل ذلك عن عدد من السلف من الصحابة ومن بعدهم، اقتداء بالنبي ـ صلى الله عليه وسلم ـ، قال ابن القيم:  وكان ـ صلى الله عليه وسلم ـ يلبس لهما ( أي للعيدين ) أجمل ثيابه، وكان له حُلة يلبسها للعيدين والجمعة  . والرجل يخرج على هذه الصفة من التجمل، وأما النساء فإنهن إذا خرجن لصلاة العيد وغيرها يخرجن على الصفة التي أذن بها لهن النبي ـ صلى الله عليه وسلم ـ إذا شهدن الصلاة حيث قال: ( لا تمنعوا إماء الله مساجد الله ولكن ليخرجن وهن تَفِلات (غير متطيبات) ) رواه أبو داود ._x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D_
+قال ابن حجر:  ويلحق بالطيب ما في معناه، لأن سبب المنع منه ما فيه من تحريك داعية الشهوة، كحسن الملبس والحلي الذي يظهر، والزينة الفاخرة، وكذا الاختلاط بالرجال  ._x000D__x000D__x000D__x000D__x000D_
+_x000D__x000D__x000D__x000D__x000D_
+وفي عيد الأضحى يُشرع التكبير من فجر يوم عرفة حتى انتهاء أيام التشريق، حيث ثبت عنه ـ صلى الله عليه وسلم ـ أنه كان يُكبِّر في تلك الأيام، ويجتمع المسلمون لأداء صلاة العيد بعد التكبير، لتكون مناسبة تعبير عن الفرح والشكر لله على نعمه، حيث يُعتبر العيد فرصة لتعزيز الروابط الاجتماعية وتقديم الأضاحي في سبيل الله.</t>
+  </si>
+  <si>
+    <t>يمكنكم من خلال العد التنازلي في الأسفل معرفة كم باقي يوم على الإسراء والمعراج بكل سهولة، حيث يظهر العد التنازلي الذي يبين عدد الأيام المتبقية على حلول هذه الليلة المباركة. الإسراء والمعراج هو حدث إسلامي مهم حيث صعد النبي محمد صلى الله عليه وسلم إلى السماوات السبع، وهو من المناسبات التي ينتظرها المسلمون سنويًا لتعزيز إيمانهم واستذكار معجزة الإسراء. لمعرفة كم باقي على الإسراء والمعراج 2025، يمكنكم متابعة العد التنازلي في هذه الصفحة.</t>
+  </si>
+  <si>
+    <t>الإسراء والمعراج هو حدث إسلامي يُعتقد أنه حدث في ليلة واحدة، حيث أُخذ النبي محمد صلى الله عليه وسلم من المسجد الحرام إلى المسجد الأقصى، ثم صعد إلى السماوات السبع. هذه المعجزة تُعتبر واحدة من أبرز معجزات النبي محمد.</t>
+  </si>
+  <si>
+    <t>الإسراء والمعراج يحمل أهمية كبيرة في الإسلام، حيث يُظهر قوة الله وعظمته، ويُذكّر المسلمين بالإيمان والصبر. يُعتبر هذا الحدث فرصة للتقرب إلى الله وإحياء روحانية الإيمان في قلوب المسلمين.</t>
+  </si>
+  <si>
+    <t>يمكن للمسلمين إحياء ذكرى الإسراء والمعراج من خلال قراءة القرآن، أداء صلاة خاصة، والاستغفار والدعاء. يُستحسن تنظيم دروس ومحاضرات تُركز على هذه المناسبة لتعزيز الفهم حول المعجزات والقصص التي وقعت خلال هذه الليلة المباركة.</t>
+  </si>
+  <si>
+    <t>تُذكّر ليلة الإسراء والمعراج المسلمين بأهمية الصلاة والصبر على البلاء، وتُشجع على تعزيز الروحانية والإيمان. كما تُعد فرصة للاحتفال بتعاليم الإسلام وأخذ العبرة من معجزة النبي محمد صلى الله عليه وسلم.</t>
+  </si>
+  <si>
+    <t>الإسراء والمعراج 2025، العد التنازلي، كم باقي على الإسراء، موعد الإسراء والمعراج 2025، متى الإسراء والمعراج 2025، تاريخ الإسراء والمعراج، الليلة المباركة، الإسراء والمعراج، متى ليلة الإسراء والمعراج، العد التنازلي للإسراء والمعراج 2025، كم باقي للحدث.</t>
+  </si>
+  <si>
+    <t>ashura.webp</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_عاشوراء</t>
+  </si>
+  <si>
+    <t>عاشوراء 2025</t>
+  </si>
+  <si>
+    <t>2025-07-06T00:00:00</t>
+  </si>
+  <si>
+    <t>يمكنكم من خلال هذه الصفحة معرفة كم باقي على عاشوراء 2025 بكل سهولة، حيث يظهر العد التنازلي في الأسفل ليبين المدة المتبقية على عاشوراء. عاشوراء من الأيام المهمة في الإسلام حيث يعتبر ذكرى لإنقاذ نبي الله موسى وقومه من فرعون، وصيامه سنة عن النبي محمد صلى الله عليه وسلم. يتميز هذا اليوم بأجواء دينية خاصة ويمثل فرصة للصيام والتقرب إلى الله، حيث يتطلع المسلمون لمعرفة كم باقي على عاشوراء 2025 للاحتفال بهذه المناسبة الدينية. يمكنكم من خلال العد التنازلي معرفة كم باقي على عاشوراء بالأسابيع، الأيام، الساعات، وحتى بالتاريخ الهجري.</t>
+  </si>
+  <si>
+    <t>العد التنازلي لعاشوراء</t>
+  </si>
+  <si>
+    <t>عاشوراء هو اليوم العاشر من شهر محرم في التقويم الهجري، ويعد من الأيام التي يستحب فيها الصيام. يشهد هذا اليوم إحياء ذكرى نجاة موسى عليه السلام وقومه من بطش فرعون، ويعتبر صيامه سنة مؤكدة عن النبي محمد صلى الله عليه وسلم، كنوع من الشكر لله على هذه النعمة.</t>
+  </si>
+  <si>
+    <t>يوم عاشوراء له أهمية كبيرة في الإسلام، فهو مرتبط بأحداث تاريخية عظيمة تتعلق بالأنبياء، ويحث الإسلام على صيامه كنوع من التطوع وشكر الله. يعتبر من الأيام التي تبرز فيها القيم الدينية والتقرب إلى الله، مما يجعله يومًا استثنائيًا يعم فيه الجو الروحاني والديني بين المسلمين.</t>
+  </si>
+  <si>
+    <t>للاستعداد لعاشوراء، ينصح المسلمين بالالتزام بالصيام في هذا اليوم، وتكثيف الدعاء والأعمال الصالحة. يمكن للصائمين أيضًا صيام يوم قبله أو بعده، وهو ما يعرف بصيام يوم تاسوعاء لتأكيد صيام عاشوراء. إضافةً إلى ذلك، يُعتبر الوقت قبل عاشوراء فرصة للتوبة والإقبال على الطاعات.</t>
+  </si>
+  <si>
+    <t>يعد يوم عاشوراء فرصة للتقرب إلى الله عبر الصيام والدعاء، وتجديد النية لزيادة الطاعات. يعم هذا اليوم الأجواء الدينية التي تدفع المسلمين لتعزيز روح المحبة والإخلاص. من خلال موقعنا، يمكنكم معرفة متى موعد عاشوراء والعد التنازلي لبدايته بشكل دقيق.</t>
+  </si>
+  <si>
+    <t>عاشوراء 2025، كم باقي على عاشوراء، موعد عاشوراء 2025، تاريخ عاشوراء 2025، عاشوراء الكويت، العد التنازلي لعاشوراء، كم باقي على اليوم العاشر من محرم، عاشوراء ١٤٤٧، موعد عاشوراء 2025 الكويت، كم باقي على عاشوراء 1447.</t>
+  </si>
+  <si>
+    <t>teacher-day.webp</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_عيد_المعلم</t>
+  </si>
+  <si>
+    <t>عيد المعلم 2025</t>
+  </si>
+  <si>
+    <t>2025-10-05T00:00:00</t>
+  </si>
+  <si>
+    <t>"يمكنكم من خلال العد التنازلي في الأسفل معرفة كم باقي على عيد المعلم 2025 بكل سهولة. يتيح لكم موقعنا العد التنازلي الدقيق الذي يوضح كم يتبقى من الأيام حتى حلول هذا اليوم المميز، والذي يكرّم دور المعلمين في بناء الأجيال. يستعد الطلاب والهيئات التعليمية للاحتفال بعيد المعلم في كل عام، حيث يُعتبر فرصة للتقدير والامتنان لجميع المعلمين. احصل على تفاصيل متى يكون عيد المعلم 2025 وما هو موعد الاحتفال به."</t>
+  </si>
+  <si>
+    <t>العد التنازلي لعيد المعلم</t>
+  </si>
+  <si>
+    <t>"عيد المعلم هو مناسبة سنوية تُحتفل بها في العديد من البلدان حول العالم تكريماً لجهود المعلمين وإسهاماتهم في التعليم والمجتمع. يتم الاحتفال بعيد المعلم في تواريخ مختلفة حسب الدولة."</t>
+  </si>
+  <si>
+    <t>"عيد المعلم يُعتبر فرصة مهمة لتقدير المعلمين على جهودهم في تعليم الأجيال الصاعدة وبناء المجتمع. يتم تقديم الشكر والتقدير للمعلمين على ما يبذلونه من جهد لتحقيق التعليم الفعال والإيجابي."</t>
+  </si>
+  <si>
+    <t>"يتم التحضير لعيد المعلم من خلال التخطيط للأنشطة التقديرية، مثل توزيع الهدايا والشهادات التقديرية، وتنظيم الفعاليات المدرسية، وتقديم الشكر بشكل علني للمعلمين."</t>
+  </si>
+  <si>
+    <t>"يعد الاحتفال بعيد المعلم فرصة لتعزيز الروابط بين المعلمين والطلاب والمجتمع، بالإضافة إلى تعزيز التقدير للعملية التعليمية. احرصوا على الاستفادة من هذا اليوم لتعزيز العلاقات وتحفيز الطلاب على تقدير قيمة التعليم."</t>
+  </si>
+  <si>
+    <t>"عيد المعلم 2025، كم باقي على عيد المعلم، العد التنازلي لعيد المعلم، موعد عيد المعلم، متى عيد المعلم 2025، تاريخ عيد المعلم، متى يكون عيد المعلم 2025، عيد المعلم في الوطن العربي، الاحتفال بعيد المعلم، كم باقي على الاحتفال بعيد المعلم."</t>
+  </si>
+  <si>
+    <t>https://ourworldd.com/%D9%85%D8%AA%D9%89-%D9%8A%D8%A8%D8%AF%D8%A3-%D9%81%D8%B5%D9%84-%D8%A7%D9%84%D8%B5%D9%8A%D9%81-2025-%D9%86%D8%B8%D8%B1%D8%A9-%D9%85%D8%B3%D8%AA%D9%82%D8%A8%D9%84%D9%8A%D8%A9-%D8%B9%D9%84%D9%89-%D8%A7/#:~:text=%D8%B9%D9%86%D8%AF%D9%85%D8%A7%20%D9%86%D8%AA%D8%AD%D8%AF%D8%AB%20%D8%B9%D9%86%20%D9%85%D8%AA%D9%89%20%D9%8A%D8%A8%D8%AF%D8%A3,%D9%81%D9%8A%D9%87%20%D8%A7%D9%84%D9%86%D9%87%D8%A7%D8%B1%20%D8%A3%D8%B7%D9%88%D9%84%20%D9%85%D9%86%20%D8%A7%D9%84%D9%84%D9%8A%D9%84.</t>
+  </si>
+  <si>
+    <t>نظرة مستقبلية على الفصول القادمة - المدونة</t>
+  </si>
+  <si>
+    <t>تعرف على موعد فصل الشتاء 2024 - 2025 - اليوم السابع</t>
+  </si>
+  <si>
+    <t>https://www.youm7.com/story/2024/9/24/%D8%AA%D8%B9%D8%B1%D9%81-%D8%B9%D9%84%D9%89-%D9%85%D9%88%D8%B9%D8%AF-%D9%81%D8%B5%D9%84-%D8%A7%D9%84%D8%B4%D8%AA%D8%A7%D8%A1-2024-2025/6718095#:~:text=%D9%83%D8%B4%D9%81%D8%AA%20%D8%A7%D9%84%D8%AD%D8%B3%D8%A7%D8%A8%D8%A7%D8%AA%20%D8%A7%D9%84%D9%81%D9%84%D9%83%D9%8A%D8%A9%20%D9%85%D9%88%D8%A7%D8%B9%D9%8A%D8%AF%20%D8%A8%D8%AF%D8%A7%D9%8A%D8%A7%D8%AA,%D9%88%D9%8A%D8%B3%D8%AA%D9%85%D8%B1%2088%20%D9%8A%D9%88%D9%85%D8%A7%20%D9%8823%20%D8%B3%D8%A7%D8%B9%D8%A9%20.</t>
+  </si>
+  <si>
+    <t>تعرف على موعد فصل الخريف 2024 - 2025 - اليوم السابع</t>
+  </si>
+  <si>
+    <t>https://www.youm7.com/story/2024/9/24/%D8%AA%D8%B9%D8%B1%D9%81-%D8%B9%D9%84%D9%89-%D9%85%D9%88%D8%B9%D8%AF-%D9%81%D8%B5%D9%84-%D8%A7%D9%84%D8%B4%D8%AA%D8%A7%D8%A1-2024-2025/6718095#:~:text=%D9%8A%D8%A8%D8%AF%D8%A3%20%D9%81%D8%B5%D9%84%20%D8%A7%D9%84%D8%AE%D8%B1%D9%8A%D9%81%20%D8%A7%D9%84%D8%A3%D8%AD%D8%AF%2022%20%D8%B3%D8%A8%D8%AA%D9%85%D8%A8%D8%B1%20%D9%88%D8%B7%D9%88%D9%84%D9%87%2089%20%D9%8A%D9%88%D9%85%D8%A7%20%D9%8820,%D8%A7%D8%B3%D8%AA%D9%85%D8%B1%2093%20%D9%8A%D9%88%D9%85%D8%A7%20%D9%8815%20%D8%B3%D8%A7%D8%B9%D8%A9.</t>
+  </si>
+  <si>
+    <t>https://www.metoffice.gov.uk/weather/learn-about/weather/seasons/spring/when-does-spring-start</t>
+  </si>
+  <si>
+    <t>متى يبدأ فصل الربيع - Met Office</t>
+  </si>
+  <si>
+    <t>https://ar.wikipedia.org/wiki/%D9%83%D8%A3%D8%B3_%D8%A7%D9%84%D8%B9%D8%A7%D9%84%D9%85_2026</t>
+  </si>
+  <si>
+    <t>ويكيبيديا</t>
+  </si>
+  <si>
+    <t>https://www.twinkl.com/event/ywm-rft-2025</t>
+  </si>
+  <si>
+    <t>اقرا عن يوم عرفة - توينكل</t>
+  </si>
+  <si>
+    <t>https://ar.wikipedia.org/wiki/%D9%83%D8%A3%D8%B3_%D8%A2%D8%B3%D9%8A%D8%A7_2027</t>
+  </si>
+  <si>
+    <t>https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%A3%D9%84%D8%B9%D8%A7%D8%A8_%D8%A7%D9%84%D8%A3%D9%88%D9%84%D9%85%D8%A8%D9%8A%D8%A9_%D8%A7%D9%84%D8%B5%D9%8A%D9%81%D9%8A%D8%A9_2028</t>
+  </si>
+  <si>
+    <t>https://www.un.org/ar/observances/womens-day</t>
+  </si>
+  <si>
+    <t>الامم المتحدة</t>
+  </si>
+  <si>
+    <t>https://www.aletihad.ae/news/%D8%A7%D9%84%D8%A5%D9%85%D8%A7%D8%B1%D8%A7%D8%AA/4515869/-%D8%A7%D9%84%D8%B4%D8%A4%D9%88%D9%86-%D8%A7%D9%84%D8%A5%D8%B3%D9%84%D8%A7%D9%85%D9%8A%D8%A9---%D9%81%D8%AA%D8%AD-%D8%A8%D8%A7%D8%A8-%D8%A7%D9%84%D8%AA%D8%B3%D8%AC%D9%8A%D9%84-%D9%84%D9%85%D9%88%D8%B3%D9%85-%D8%AD%D8%AC-2025-%D8%BA%D8%AF%D8%A7</t>
+  </si>
+  <si>
+    <t>مركز الاتحاد للاخبار</t>
+  </si>
+  <si>
+    <t>الإسراء والمعراج 2025 - Twinkl</t>
+  </si>
+  <si>
+    <t>https://www.twinkl.co.uk/event/alasra-almraj-israa-meraj-alasra-walmraj-2025#:~:text=February%207%2C%202025%20%2D%20February%208%2C%202025</t>
+  </si>
+  <si>
+    <t>ما هو موعد عاشوراء 2025؟ - كاليندرز</t>
+  </si>
+  <si>
+    <t>https://www.calendarz.com/ar/when-is/muslim-holidays/ashura/2025</t>
+  </si>
+  <si>
+    <t>https://ar.wikipedia.org/wiki/%D9%8A%D9%88%D9%85_%D8%A7%D9%84%D8%B9%D9%85%D8%A7%D9%84_%D8%A7%D9%84%D8%B9%D8%A7%D9%84%D9%85%D9%8A</t>
+  </si>
+  <si>
+    <t>يوم العمال العالمي</t>
+  </si>
+  <si>
+    <t>كم باقي على  رمضان 2025 - متى رمضان</t>
+  </si>
+  <si>
+    <t>كم باقي على عيد الأضحى 2025 - متى عيد الأضحى</t>
+  </si>
+  <si>
+    <t>كم باقي على نصف شعبان 2025 - متى نصف شعبان</t>
+  </si>
+  <si>
+    <t>كم باقي على السنة الهجرية 2025 - متى السنة الهجرية</t>
+  </si>
+  <si>
+    <t>كم باقي على عيد الأم 2025 - متى عيد الأم</t>
+  </si>
+  <si>
+    <t>كم باقي على المولد النبوي 2025 - متى المولد النبوي</t>
+  </si>
+  <si>
+    <t>كم باقي على عيد الفطر 2025 - متى عيد الفطر</t>
+  </si>
+  <si>
+    <t>تعرف على الوقت المتبقي على عيد الفطر.. متى عيد الفطر 2025.. كم باقي على عيد الفطر.. مواعيد عيد الفطر 2025.. العد التنازلي لعيد الفطر.. تاريخ عيد الفطر 2025.. أول أيام عيد الفطر المبارك بالهجري والميلادي.</t>
+  </si>
+  <si>
+    <t>تعرف على الوقت المتبقي على عيد الأضحى.. متى عيد الأضحى 2025.. كم باقي على عيد الأضحى.. مواعيد عيد الأضحى 2025.. العد التنازلي لعيد الأضحى.. تاريخ عيد الأضحى 2025.. أول أيام عيد الأضحى المبارك بالهجري والميلادي.</t>
+  </si>
+  <si>
+    <t>تعرف على الوقت المتبقي على رمضان.. متى يبدأ رمضان 1446 - 2025.. كم باقي على رمضان.. مواعيد رمضان.. العد التنازلي لرمضان.. موعد رمضان.. أول أيام رمضان المبارك بالهجري والميلادي.</t>
+  </si>
+  <si>
+    <t>تعرف على الوقت المتبقي على ليلة النصف من شعبان.. متى ليلة النصف من شعبان 2025.. كم باقي على ليلة النصف من شعبان.. مواعيد ليلة النصف من شعبان.. العد التنازلي لليلة النصف من شعبان.. تاريخ ليلة النصف من شعبان 2025.</t>
+  </si>
+  <si>
+    <t>تعرف على الوقت المتبقي على رأس السنة الهجرية.. متى رأس السنة الهجرية 2025.. كم باقي على رأس السنة الهجرية.. مواعيد رأس السنة الهجرية.. العد التنازلي لرأس السنة الهجرية.. تاريخ رأس السنة الهجرية.. أول أيام شهر محرم بالهجري والميلادي.</t>
+  </si>
+  <si>
+    <t>تعرف على الوقت المتبقي على عيد الأم.. متى عيد الأم 2025.. كم باقي على عيد الأم.. مواعيد عيد الأم.. العد التنازلي لعيد الأم.. تاريخ عيد الأم.. الاحتفال بعيد الأم بالهجري والميلادي.</t>
+  </si>
+  <si>
+    <t>تعرف على الوقت المتبقي على المولد النبوي الشريف.. متى المولد النبوي 2025.. كم باقي على المولد النبوي.. مواعيد المولد النبوي.. العد التنازلي للمولد النبوي.. تاريخ المولد النبوي بالهجري والميلادي.</t>
+  </si>
+  <si>
+    <t>تعرف على الوقت المتبقي على رأس السنة الميلادية.. متى رأس السنة الميلادية 2025.. كم باقي على رأس السنة الميلادية.. مواعيد رأس السنة الميلادية.. العد التنازلي لرأس السنة الميلادية.. تاريخ رأس السنة الميلادية 2025.</t>
+  </si>
+  <si>
+    <t>تعرف على الوقت المتبقي على بداية فصل الصيف.. متى يبدأ فصل الصيف 2025.. كم باقي على فصل الصيف.. مواعيد بداية الصيف.. العد التنازلي لفصل الصيف.. فضل فصل الصيف وأنشطته الممتعة.</t>
+  </si>
+  <si>
+    <t>تعرف على الوقت المتبقي على بداية فصل الشتاء.. متى يبدأ فصل الشتاء 2025.. كم باقي على فصل الشتاء.. مواعيد بداية الشتاء.. العد التنازلي لفصل الشتاء.. فضل فصل الشتاء وأنشطته الممتعة.</t>
+  </si>
+  <si>
+    <t>تعرف على الوقت المتبقي على بداية فصل الخريف.. متى يبدأ فصل الخريف 2025.. كم باقي على فصل الخريف.. مواعيد بداية الخريف.. العد التنازلي لفصل الخريف.. فضل فصل الخريف وأنشطته الممتعة.</t>
+  </si>
+  <si>
+    <t>تعرف على الوقت المتبقي على بداية فصل الربيع.. متى يبدأ فصل الربيع 2025.. كم باقي على فصل الربيع.. مواعيد بداية الربيع.. العد التنازلي لفصل الربيع.. فضل فصل الربيع وأنشطته الممتعة.</t>
+  </si>
+  <si>
+    <t>تعرف على الوقت المتبقي على كأس العالم 2026.. متى يبدأ كأس العالم.. كم باقي على كأس العالم.. مواعيد مباريات كأس العالم.. العد التنازلي لكأس العالم.. المنتخبات المشاركة وتاريخ البطولة.</t>
+  </si>
+  <si>
+    <t>تعرف على الوقت المتبقي على يوم عرفة.. متى يوم عرفة 2025.. كم باقي على يوم عرفة.. مواعيد يوم عرفة.. العد التنازلي ليوم عرفة.. فضل يوم عرفة وأهمية الوقوف بعرفة.</t>
+  </si>
+  <si>
+    <t>تعرف على الوقت المتبقي على كأس آسيا 2027.. متى يبدأ كأس آسيا.. كم باقي على كأس آسيا.. مواعيد مباريات كأس آسيا.. العد التنازلي لكأس آسيا.. المنتخبات المشاركة وتاريخ البطولة.</t>
+  </si>
+  <si>
+    <t>تعرف على الوقت المتبقي على الأولمبياد 2028.. متى الأولمبياد.. كم باقي على الأولمبياد.. مواعيد الأولمبياد 2028.. العد التنازلي للأولمبياد.. الرياضات المشاركة وتاريخ البطولة.</t>
+  </si>
+  <si>
+    <t>تعرف على الوقت المتبقي على عيد المرأة.. متى عيد المرأة 2025.. كم باقي على عيد المرأة.. مواعيد عيد المرأة.. العد التنازلي لعيد المرأة.. الفعاليات وطرق الاحتفال بعيد المرأة.</t>
+  </si>
+  <si>
+    <t>تعرف على الوقت المتبقي على بلاك فرايدي.. متى بلاك فرايدي 2025.. كم باقي على بلاك فرايدي.. مواعيد بلاك فرايدي.. العد التنازلي لبلاك فرايدي.. العروض المتاحة وأفضل طرق الاستفادة من الخصومات.</t>
+  </si>
+  <si>
+    <t>تعرف على الوقت المتبقي على موسم الحج.. متى يبدأ موسم الحج 2025.. كم باقي على الحج.. مواعيد موسم الحج.. العد التنازلي لموسم الحج.. مناسك الحج وأفضل النصائح لأداء فريضة الحج.</t>
+  </si>
+  <si>
+    <t>تعرف على الوقت المتبقي على الإسراء والمعراج.. متى الإسراء والمعراج 2025.. كم باقي على ليلة الإسراء والمعراج.. مواعيد الإسراء والمعراج.. العد التنازلي لليلة الإسراء والمعراج.. تاريخ وفضل هذه الليلة المباركة.</t>
+  </si>
+  <si>
+    <t>تعرف على الوقت المتبقي على يوم عاشوراء.. متى يوم عاشوراء 2025.. كم باقي على عاشوراء.. مواعيد عاشوراء.. العد التنازلي ليوم عاشوراء.. وأهم الطقوس الدينية وأهمية هذا اليوم.</t>
+  </si>
+  <si>
+    <t>تعرف على الوقت المتبقي على عيد المعلم.. متى عيد المعلم 2025.. كم باقي على عيد المعلم.. مواعيد عيد المعلم.. العد التنازلي لعيد المعلم.. وأهم الفعاليات الخاصة بهذه المناسبة.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> كم باقي على السنة الميلادية 2025 - متى السنة الميلادية</t>
+  </si>
+  <si>
+    <t>كم باقي على الصيف 2025 - متى الصيف</t>
+  </si>
+  <si>
+    <t>كم باقي على الشتاء 2025 - متى الشتاء</t>
+  </si>
+  <si>
+    <t>كم باقي على الخريف 2025 - متى الخريف</t>
+  </si>
+  <si>
+    <t>كم باقي على الربيع 2025 - متى الربيع</t>
+  </si>
+  <si>
+    <t>كم باقي على كأس العالم 2026 - متى كأس العالم</t>
+  </si>
+  <si>
+    <t>كم باقي على يوم عرفة 2025 - متى يوم عرفة</t>
+  </si>
+  <si>
+    <t>كم باقي على كأس آسيا 2027 - متى كأس آسيا</t>
+  </si>
+  <si>
+    <t>كم باقي على الأولمبياد 2028 - متى الأولمبياد</t>
+  </si>
+  <si>
+    <t>كم باقي على عيد المرأة 2025 - متى عيد المرأة</t>
+  </si>
+  <si>
+    <t>كم باقي على بلاك فرايدي 2025 - متى بلاك فرايدي</t>
+  </si>
+  <si>
+    <t>كم باقي على موسم الحج 2025 - متى موسم الحج</t>
+  </si>
+  <si>
+    <t>كم باقي على الإسراء والمعراج 2025 - متى الإسراء والمعراج</t>
+  </si>
+  <si>
+    <t>كم باقي على عاشوراء 2025 - متى عاشوراء</t>
+  </si>
+  <si>
+    <t>كم باقي على عيد المعلم 2025 - متى عيد المعلم</t>
+  </si>
+  <si>
+    <t>diabetes-day.webp</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_اليوم_العالمي_ل_داء_السكري_2025</t>
+  </si>
+  <si>
+    <t>2025-11-14T00:00:00</t>
+  </si>
+  <si>
+    <t>"يمكنكم من خلال العد التنازلي في الأسفل معرفة كم باقي يوم على اليوم العالمي لداء السكري 2025 بكل سهولة، حيث يبين لكم العد التنازلي لبداية هذا اليوم الهام الذي يتم الاحتفال به سنويًا في 14 نوفمبر لزيادة الوعي حول مرض السكري ومخاطره. يعد اليوم العالمي لداء السكري فرصة مهمة لتسليط الضوء على الوقاية من هذا المرض، وتوعية الأفراد حول كيفية إدارة السكري وأهمية اتباع نمط حياة صحي. تعرفوا من خلال موقعنا على معلومات شاملة حول هذا اليوم، حيث يوضح كم باقي يوم على اليوم العالمي لداء السكري 2025، مع عرض المدة المتبقية بالأسابيع، الأيام، الساعات وحتى التاريخ الهجري."</t>
+  </si>
+  <si>
+    <t>العد التنازلي لبدء اليوم العالمي لداء السكري</t>
+  </si>
+  <si>
+    <t>اليوم العالمي لداء السكري هو يوم توعية عالمي يتم الاحتفال به كل عام في 14 نوفمبر لتعزيز الوعي حول داء السكري وأثره على الصحة العالمية. هذا اليوم يعد فرصة عالمية للتشجيع على الفحص المبكر وإدارة السكري والوقاية منه عبر اتباع نمط حياة صحي وغذاء متوازن.</t>
+  </si>
+  <si>
+    <t>اليوم العالمي لداء السكري يحمل أهمية بالغة نظراً لانتشار هذا المرض المزمن، وهو يؤثر على الملايين حول العالم. يساعد هذا اليوم في رفع الوعي بأعراض السكري وأهمية الكشف المبكر وإدارة المرض بشكل فعال لتجنب المضاعفات الصحية الخطيرة التي قد تؤدي إلى تأثيرات كبيرة على الحياة اليومية والصحة العامة للأفراد المصابين.</t>
+  </si>
+  <si>
+    <t>كم باقي على اليوم العالمي لداء السكري 2025</t>
+  </si>
+  <si>
+    <t>التحضير لليوم العالمي لداء السكري يتطلب إعداد الأنشطة التوعوية والفعاليات التي تهدف إلى تعزيز الوعي حول المرض. يبدأ الناس بالتحضير منذ أسابيع عبر تنظيم ورش عمل، محاضرات، وحملات إعلامية، حيث يتساءل الجميع "متى يبدأ الاحتفال؟" العد التنازلي لهذا اليوم يجعل المجتمع يترقب الفعاليات ويعزز من الحماس للمشاركة في النشاطات المختلفة التي تساهم في نشر المعلومات القيمة.</t>
+  </si>
+  <si>
+    <t>الاحتفال باليوم العالمي لداء السكري يعزز من الوعي الصحي ويساعد في مكافحة المرض من خلال التعليم والوقاية. يعد فرصة للمجتمع للتفاعل وتبادل المعرفة حول كيفية العيش مع داء السكري بشكل صحي. العد التنازلي لهذا اليوم يخلق شعورًا بالتوقعات بين الناس، حيث يتطلعون إلى الفعاليات والنشاطات التي ستُقام، مما يساعد في زيادة الفهم حول المرض وأهمية رعاية الصحة. يوم الاحتفال هو فرصة لجمع المعلومات التي قد تساعد الناس على اتخاذ خطوات إيجابية لتحسين صحتهم وحياتهم.</t>
+  </si>
+  <si>
+    <t>يمكنكم من خلال هذه الصفحة معرفة كم باقي على اليوم العالمي لداء السكري في الإمارات، حيث نقدم لكم العد التنازلي لليوم العالمي لداء السكري ومتى يبدأ الاحتفال به. تتيح لكم هذه الصفحة معرفة موعد هذا الحدث الهام وطرق الاحتفال به، مما يساهم في تعزيز الوعي والوقاية من داء السكري.</t>
+  </si>
+  <si>
+    <t>اليوم العالمي لداء السكري، كم باقي، متى موعد اليوم العالمي لداء السكري، العد التنازلي، الإمارات، التوعية، الصحة</t>
+  </si>
+  <si>
+    <t>https://www.mohre.gov.ae/ar/media-center/events.aspx</t>
+  </si>
+  <si>
+    <t>وزارة الموارد البشرية في الامارات</t>
+  </si>
+  <si>
+    <t>رمضان 2025</t>
+  </si>
+  <si>
+    <t>النصف من شعبان 2025</t>
+  </si>
+  <si>
+    <t>رأس السنة الهجرية 2025</t>
+  </si>
+  <si>
+    <t>عيد الأم 2025</t>
+  </si>
+  <si>
+    <t>المولد النبوي 2025</t>
+  </si>
+  <si>
+    <t>السنة الميلادية 2025</t>
+  </si>
+  <si>
+    <t>فصل الصيف 2025</t>
+  </si>
+  <si>
+    <t>فصل الشتاء 2025</t>
+  </si>
+  <si>
+    <t>فصل الخريف 2025</t>
+  </si>
+  <si>
+    <t>فصل الربيع 2025</t>
+  </si>
+  <si>
+    <t>كأس العالم 2026</t>
+  </si>
+  <si>
+    <t>يوم عرفة	2025</t>
+  </si>
+  <si>
+    <t>كأس آسيا 2027</t>
+  </si>
+  <si>
+    <t>الأولمبياد 2028</t>
+  </si>
+  <si>
+    <t>عيد المرأة 2025</t>
+  </si>
+  <si>
+    <t>بلاك فرايدي 2025</t>
+  </si>
+  <si>
+    <t>الحج 2025</t>
+  </si>
+  <si>
+    <t>اليوم العالمي لداء السكري 2025</t>
   </si>
 </sst>
 </file>
@@ -519,10 +1200,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -863,26 +1553,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="20" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="2.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="19" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -938,453 +1627,1391 @@
       <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3">
+        <v>45590</v>
+      </c>
+      <c r="E2">
+        <v>2025</v>
+      </c>
+      <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="E2">
-        <v>45562</v>
-      </c>
-      <c r="F2">
-        <v>2025</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
+        <v>207</v>
+      </c>
+      <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
+        <v>231</v>
+      </c>
+      <c r="N2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
+      <c r="O2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="P2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" t="b">
+      <c r="Q2" t="b">
         <v>1</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="T2" t="s">
-        <v>94</v>
+      <c r="R2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S2" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3">
+        <v>45590</v>
+      </c>
+      <c r="E3">
+        <v>2025</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
+        <v>232</v>
+      </c>
+      <c r="N3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
+      <c r="O3" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="P3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3">
-        <v>45562</v>
-      </c>
-      <c r="F3">
-        <v>2025</v>
-      </c>
-      <c r="G3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>46</v>
-      </c>
-      <c r="R3" t="b">
+      <c r="Q3" t="b">
         <v>1</v>
       </c>
-      <c r="S3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="T3" t="s">
-        <v>93</v>
+      <c r="R3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S3" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>285</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
+        <v>36</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45590</v>
       </c>
       <c r="E4">
-        <v>45562</v>
-      </c>
-      <c r="F4">
         <v>2025</v>
       </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>343</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>206</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>209</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="N4" t="s">
-        <v>57</v>
-      </c>
-      <c r="O4" t="s">
-        <v>58</v>
+        <v>42</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="P4" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>60</v>
-      </c>
-      <c r="R4" t="b">
+        <v>43</v>
+      </c>
+      <c r="Q4" t="b">
         <v>0</v>
       </c>
-      <c r="S4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="T4" t="s">
-        <v>96</v>
+      <c r="R4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S4" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>287</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" t="s">
-        <v>61</v>
+        <v>44</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45590</v>
       </c>
       <c r="E5">
-        <v>45562</v>
-      </c>
-      <c r="F5">
         <v>2025</v>
       </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>344</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>210</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="L5" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="M5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="P5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="N5" t="s">
+      <c r="S5" t="s">
         <v>69</v>
       </c>
-      <c r="O5" t="s">
-        <v>70</v>
-      </c>
-      <c r="P5" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>72</v>
-      </c>
-      <c r="R5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="T5" t="s">
-        <v>98</v>
-      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>288</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" t="s">
-        <v>85</v>
+        <v>58</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45590</v>
       </c>
       <c r="E6">
-        <v>45562</v>
-      </c>
-      <c r="F6">
         <v>2025</v>
       </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>345</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>211</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>90</v>
+        <v>53</v>
+      </c>
+      <c r="L6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" t="s">
+        <v>55</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="R6" t="b">
+        <v>296</v>
+      </c>
+      <c r="P6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" t="b">
         <v>1</v>
       </c>
-      <c r="S6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="T6" t="s">
-        <v>89</v>
+      <c r="R6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S6" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>289</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" t="s">
-        <v>102</v>
+        <v>71</v>
+      </c>
+      <c r="D7" s="3">
+        <v>45590</v>
       </c>
       <c r="E7">
-        <v>45562</v>
-      </c>
-      <c r="F7">
         <v>2025</v>
       </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>346</v>
       </c>
       <c r="H7" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s">
-        <v>105</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>106</v>
+        <v>212</v>
+      </c>
+      <c r="J7" t="s">
+        <v>137</v>
       </c>
       <c r="K7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>99</v>
+        <v>74</v>
+      </c>
+      <c r="L7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" t="s">
+        <v>75</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="R7" t="b">
+        <v>297</v>
+      </c>
+      <c r="P7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" t="b">
         <v>0</v>
       </c>
+      <c r="R7" t="s">
+        <v>78</v>
+      </c>
       <c r="S7" t="s">
-        <v>113</v>
-      </c>
-      <c r="T7" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45590</v>
+      </c>
+      <c r="E8">
+        <v>2025</v>
+      </c>
+      <c r="F8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" t="s">
+        <v>347</v>
+      </c>
+      <c r="H8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" t="s">
+        <v>213</v>
+      </c>
+      <c r="J8" t="s">
+        <v>138</v>
+      </c>
+      <c r="K8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" t="s">
+        <v>85</v>
+      </c>
+      <c r="N8" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="P8" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>88</v>
+      </c>
+      <c r="S8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="3">
+        <v>45590</v>
+      </c>
+      <c r="E9">
+        <v>2025</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>348</v>
+      </c>
+      <c r="H9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" t="s">
+        <v>214</v>
+      </c>
+      <c r="J9" t="s">
+        <v>139</v>
+      </c>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" t="s">
+        <v>95</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="P9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45590</v>
+      </c>
+      <c r="E10">
+        <v>2025</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>349</v>
+      </c>
+      <c r="H10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" t="s">
+        <v>215</v>
+      </c>
+      <c r="J10" t="s">
+        <v>140</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="s">
+        <v>105</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="P10" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>261</v>
+      </c>
+      <c r="S10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="3">
+        <v>45590</v>
+      </c>
+      <c r="E11">
+        <v>2025</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>350</v>
+      </c>
+      <c r="H11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" t="s">
+        <v>216</v>
+      </c>
+      <c r="J11" t="s">
+        <v>141</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="s">
+        <v>113</v>
+      </c>
+      <c r="N11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="P11" t="s">
         <v>115</v>
       </c>
-      <c r="C8" t="s">
+      <c r="Q11" t="b">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>264</v>
+      </c>
+      <c r="S11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>317</v>
+      </c>
+      <c r="C12" t="s">
         <v>116</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D12" s="3">
+        <v>45590</v>
+      </c>
+      <c r="E12">
+        <v>2025</v>
+      </c>
+      <c r="F12" t="s">
         <v>117</v>
       </c>
-      <c r="E8">
-        <v>45562</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="G12" t="s">
+        <v>351</v>
+      </c>
+      <c r="H12" t="s">
         <v>118</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I12" t="s">
+        <v>217</v>
+      </c>
+      <c r="J12" t="s">
+        <v>142</v>
+      </c>
+      <c r="K12" t="s">
         <v>119</v>
       </c>
-      <c r="I8" t="s">
+      <c r="L12" t="s">
         <v>120</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="M12" t="s">
         <v>121</v>
       </c>
-      <c r="K8" t="s">
+      <c r="N12" t="s">
         <v>122</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="O12" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="P12" t="s">
         <v>123</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="Q12" t="b">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>266</v>
+      </c>
+      <c r="S12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>318</v>
+      </c>
+      <c r="C13" t="s">
         <v>124</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="D13" s="3">
+        <v>45590</v>
+      </c>
+      <c r="E13">
+        <v>2025</v>
+      </c>
+      <c r="F13" t="s">
         <v>125</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="G13" t="s">
+        <v>352</v>
+      </c>
+      <c r="H13" t="s">
         <v>126</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="I13" t="s">
+        <v>218</v>
+      </c>
+      <c r="J13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" t="s">
         <v>127</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="L13" t="s">
         <v>128</v>
       </c>
-      <c r="R8" t="b">
+      <c r="M13" t="s">
+        <v>129</v>
+      </c>
+      <c r="N13" t="s">
+        <v>130</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="P13" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q13" t="b">
         <v>0</v>
       </c>
-      <c r="S8" t="s">
-        <v>129</v>
-      </c>
-      <c r="T8" t="s">
-        <v>130</v>
-      </c>
+      <c r="R13" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="S13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="3">
+        <v>45590</v>
+      </c>
+      <c r="E14">
+        <v>2026</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="s">
+        <v>353</v>
+      </c>
+      <c r="H14" t="s">
+        <v>134</v>
+      </c>
+      <c r="I14" t="s">
+        <v>219</v>
+      </c>
+      <c r="J14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s">
+        <v>146</v>
+      </c>
+      <c r="M14" t="s">
+        <v>147</v>
+      </c>
+      <c r="N14" t="s">
+        <v>148</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="P14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
+        <v>269</v>
+      </c>
+      <c r="S14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>320</v>
+      </c>
+      <c r="C15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="3">
+        <v>45590</v>
+      </c>
+      <c r="E15">
+        <v>2025</v>
+      </c>
+      <c r="F15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" t="s">
+        <v>354</v>
+      </c>
+      <c r="H15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I15" t="s">
+        <v>220</v>
+      </c>
+      <c r="J15" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" t="s">
+        <v>154</v>
+      </c>
+      <c r="L15" t="s">
+        <v>155</v>
+      </c>
+      <c r="M15" t="s">
+        <v>156</v>
+      </c>
+      <c r="N15" t="s">
+        <v>157</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="P15" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s">
+        <v>271</v>
+      </c>
+      <c r="S15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>321</v>
+      </c>
+      <c r="C16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" s="3">
+        <v>45590</v>
+      </c>
+      <c r="E16">
+        <v>2027</v>
+      </c>
+      <c r="F16" t="s">
+        <v>176</v>
+      </c>
+      <c r="G16" t="s">
+        <v>355</v>
+      </c>
+      <c r="H16" t="s">
+        <v>159</v>
+      </c>
+      <c r="I16" t="s">
+        <v>221</v>
+      </c>
+      <c r="J16" t="s">
+        <v>201</v>
+      </c>
+      <c r="K16" t="s">
+        <v>160</v>
+      </c>
+      <c r="L16" t="s">
+        <v>161</v>
+      </c>
+      <c r="M16" t="s">
+        <v>162</v>
+      </c>
+      <c r="N16" t="s">
+        <v>163</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="P16" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
+        <v>273</v>
+      </c>
+      <c r="S16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>322</v>
+      </c>
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="3">
+        <v>45590</v>
+      </c>
+      <c r="E17">
+        <v>2028</v>
+      </c>
+      <c r="F17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" t="s">
+        <v>356</v>
+      </c>
+      <c r="H17" t="s">
+        <v>165</v>
+      </c>
+      <c r="I17" t="s">
+        <v>222</v>
+      </c>
+      <c r="J17" t="s">
+        <v>202</v>
+      </c>
+      <c r="K17" t="s">
+        <v>166</v>
+      </c>
+      <c r="L17" t="s">
+        <v>167</v>
+      </c>
+      <c r="M17" t="s">
+        <v>168</v>
+      </c>
+      <c r="N17" t="s">
+        <v>169</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="P17" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q17" t="b">
+        <v>0</v>
+      </c>
+      <c r="R17" t="s">
+        <v>274</v>
+      </c>
+      <c r="S17" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>323</v>
+      </c>
+      <c r="C18" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="3">
+        <v>45590</v>
+      </c>
+      <c r="E18">
+        <v>2025</v>
+      </c>
+      <c r="F18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" t="s">
+        <v>357</v>
+      </c>
+      <c r="H18" t="s">
+        <v>177</v>
+      </c>
+      <c r="I18" t="s">
+        <v>223</v>
+      </c>
+      <c r="J18" t="s">
+        <v>203</v>
+      </c>
+      <c r="K18" t="s">
+        <v>178</v>
+      </c>
+      <c r="L18" t="s">
+        <v>179</v>
+      </c>
+      <c r="M18" t="s">
+        <v>180</v>
+      </c>
+      <c r="N18" t="s">
+        <v>181</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="P18" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
+        <v>275</v>
+      </c>
+      <c r="S18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>324</v>
+      </c>
+      <c r="C19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="3">
+        <v>45590</v>
+      </c>
+      <c r="E19">
+        <v>2025</v>
+      </c>
+      <c r="F19" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" t="s">
+        <v>358</v>
+      </c>
+      <c r="H19" t="s">
+        <v>183</v>
+      </c>
+      <c r="I19" t="s">
+        <v>224</v>
+      </c>
+      <c r="J19" t="s">
+        <v>204</v>
+      </c>
+      <c r="K19" t="s">
+        <v>184</v>
+      </c>
+      <c r="L19" t="s">
+        <v>185</v>
+      </c>
+      <c r="M19" t="s">
+        <v>186</v>
+      </c>
+      <c r="N19" t="s">
+        <v>187</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="P19" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="S19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>325</v>
+      </c>
+      <c r="C20" t="s">
+        <v>200</v>
+      </c>
+      <c r="D20" s="3">
+        <v>45590</v>
+      </c>
+      <c r="E20">
+        <v>2025</v>
+      </c>
+      <c r="F20" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20" t="s">
+        <v>359</v>
+      </c>
+      <c r="H20" t="s">
+        <v>194</v>
+      </c>
+      <c r="I20" t="s">
+        <v>225</v>
+      </c>
+      <c r="J20" t="s">
+        <v>205</v>
+      </c>
+      <c r="K20" t="s">
+        <v>195</v>
+      </c>
+      <c r="L20" t="s">
+        <v>196</v>
+      </c>
+      <c r="M20" t="s">
+        <v>197</v>
+      </c>
+      <c r="N20" t="s">
+        <v>198</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="P20" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>0</v>
+      </c>
+      <c r="R20" t="s">
+        <v>277</v>
+      </c>
+      <c r="S20" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D21" s="3">
+        <v>45590</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2025</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q21" t="b">
+        <v>0</v>
+      </c>
+      <c r="R21" t="s">
+        <v>280</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>327</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D22" s="3">
+        <v>45590</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2025</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R22" t="s">
+        <v>282</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>328</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D23" s="3">
+        <v>45590</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2025</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R23" t="s">
+        <v>283</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>336</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D24" s="3">
+        <v>45590</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2025</v>
+      </c>
+      <c r="F24" t="s">
+        <v>330</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S6" r:id="rId1" xr:uid="{51DF52F8-7066-484E-851D-715BA269A56E}"/>
-    <hyperlink ref="S2" r:id="rId2" xr:uid="{7135AC2E-01C9-4F0F-A47C-1BBF4E8D2583}"/>
-    <hyperlink ref="S3" r:id="rId3" xr:uid="{C592DB73-0F48-4316-B286-2CC351932C58}"/>
-    <hyperlink ref="S4" r:id="rId4" xr:uid="{2B62BA7C-78D4-4C5E-8A66-B4B50B6145BF}"/>
-    <hyperlink ref="S5" r:id="rId5" xr:uid="{DC3490D0-F7BF-4FF2-ADAC-DDD409610467}"/>
+    <hyperlink ref="R6" r:id="rId1" xr:uid="{51DF52F8-7066-484E-851D-715BA269A56E}"/>
+    <hyperlink ref="R3" r:id="rId2" display="https://www.aljazeera.net/misc/2024/3/12/%D9%85%D8%AA%D9%89-%D9%85%D9%88%D8%B9%D8%AF-%D8%B9%D9%8A%D8%AF-%D8%A7%D9%84%D9%81%D8%B7%D8%B1-2024-1445-%D9%88%D9%83%D9%85-%D8%B9%D8%AF%D8%AF-%D8%A3%D9%8A%D8%A7%D9%85" xr:uid="{C592DB73-0F48-4316-B286-2CC351932C58}"/>
+    <hyperlink ref="R4" r:id="rId3" xr:uid="{2B62BA7C-78D4-4C5E-8A66-B4B50B6145BF}"/>
+    <hyperlink ref="R5" r:id="rId4" xr:uid="{DC3490D0-F7BF-4FF2-ADAC-DDD409610467}"/>
+    <hyperlink ref="R9" r:id="rId5" xr:uid="{60EAF370-D4DB-4714-9367-9EF5A784D1C7}"/>
+    <hyperlink ref="R19" r:id="rId6" xr:uid="{E6606BF9-5B4B-4D0D-9FD4-3D945673A060}"/>
+    <hyperlink ref="R13" r:id="rId7" xr:uid="{A348394E-5C7C-4148-A268-3224FFB7896A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
   <ignoredErrors>
-    <ignoredError sqref="B1:T1 B4:R4 B2:Q2 B3:Q3 D5:R5" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:S1 C4 C2 C3 C5 K5:N5 J4:N4 J2:L2 J3:L3 N2 N3 E2:H2 E4:F4 E3:H3 E5:F5 P2 P3 Q5 P4:Q4 H5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client/src/Excel/Data/General.xlsx
+++ b/client/src/Excel/Data/General.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CF7BE5-596B-4604-9083-A229571CCE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A06124-8EAF-45E2-9D0C-15123E22CFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="470">
   <si>
     <t>Title</t>
   </si>
@@ -1156,6 +1156,333 @@
   </si>
   <si>
     <t>اليوم العالمي لداء السكري 2025</t>
+  </si>
+  <si>
+    <t>disability-day.webp</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_اليوم_العالمي_لذوي_الإحتياجات</t>
+  </si>
+  <si>
+    <t>2024-12-03T00:00:00</t>
+  </si>
+  <si>
+    <t>"تحتفل دول العالم في الثالث من ديسمبر من كل عام باليوم العالمي لذوي الإحتياجات الخاصة، حيث يُظهر هذا اليوم أهمية إدماج الأشخاص ذوي الإعاقة في المجتمع وحقوقهم الأساسية. يمكنكم من خلال العد التنازلي في الأسفل معرفة كم باقي يوم على هذا اليوم المهم، حيث يظهر لكم العد التنازلي لبداية اليوم العالمي لذوي الإحتياجات الخاصة، مما يتيح للجميع فرصة فهم هذا اليوم وكيفية الإسهام في رفع الوعي. يعد هذا اليوم منصة لنشر الوعي حول قضايا الإعاقة والترويج لحقوق ذوي الاحتياجات الخاصة، ويعتبر فرصة لدعمهم في جميع أنحاء العالم."</t>
+  </si>
+  <si>
+    <t>العد التنازلي لبدء اليوم العالمي لذوي الإحتياجات</t>
+  </si>
+  <si>
+    <t>"اليوم العالمي لذوي الإحتياجات الخاصة هو مناسبة دولية تحتفل بها الأمم المتحدة كل عام. يهدف هذا اليوم إلى زيادة الفهم حول قضايا الإعاقة، وتعزيز حقوق الأشخاص ذوي الإعاقة."</t>
+  </si>
+  <si>
+    <t>"هذا اليوم يعد مهمًا لأنه يساعد في تغيير النظرة المجتمعية تجاه الأشخاص ذوي الإعاقة، ويعزز من إدماجهم في جميع جوانب الحياة."</t>
+  </si>
+  <si>
+    <t>"يمكن للجميع المشاركة في هذا اليوم من خلال نشر الوعي، والتطوع في المنظمات التي تدعم ذوي الاحتياجات الخاصة، والمشاركة في الفعاليات التي تُنظم بهذه المناسبة."</t>
+  </si>
+  <si>
+    <t>"يوم ذوي الإحتياجات الخاصة يمثل فرصة للجميع للتعلم والتفاعل مع قضايا الأشخاص ذوي الإعاقة، والمساهمة في تحسين حياتهم وتعزيز حقوقهم."</t>
+  </si>
+  <si>
+    <t>"اكتشفوا في هذه الصفحة كل ما يتعلق باليوم العالمي لذوي الإحتياجات الخاصة 2024، بما في ذلك كم يتبقى على هذا اليوم، وأهميته في تعزيز حقوق ذوي الاحتياجات الخاصة."</t>
+  </si>
+  <si>
+    <t>"اليوم العالمي لذوي الإحتياجات، كم باقي على اليوم العالمي، العد التنازلي لليوم العالمي لذوي الإحتياجات، مواعيد اليوم العالمي، حقوق ذوي الإحتياجات، ماذا تعرف عن ذوي الإحتياجات، كم باقي على 3 ديسمبر."</t>
+  </si>
+  <si>
+    <t>كم باقي على اليوم العالمي لذوى الإحتياجات الخاصة 2024</t>
+  </si>
+  <si>
+    <t>aids-day.webp</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_اليوم_العالمي_لمكافحة_الإيدز</t>
+  </si>
+  <si>
+    <t>2024-12-01T00:00:00</t>
+  </si>
+  <si>
+    <t>"يحتفل العالم في الأول من ديسمبر من كل عام باليوم العالمي لمكافحة الإيدز، والذي يهدف إلى تعزيز الوعي بشأن فيروس نقص المناعة البشرية/الإيدز ودعم الأشخاص المتعايشين معه. يمكنكم من خلال العد التنازلي في الأسفل معرفة كم باقي يوم على هذا اليوم الهام، حيث يظهر لكم العد التنازلي لبداية اليوم العالمي لمكافحة الإيدز، مما يتيح للجميع الفرصة للمشاركة في الفعاليات والأنشطة التي تهدف إلى توعية المجتمع. يعد هذا اليوم منصة لنشر المعلومات حول الفيروس وطرق الوقاية منه."</t>
+  </si>
+  <si>
+    <t>العد التنازلي لبدء اليوم العالمي لمكافحة الإيدز</t>
+  </si>
+  <si>
+    <t>"اليوم العالمي لمكافحة الإيدز هو يوم مخصص لزيادة الوعي حول فيروس نقص المناعة البشرية/الإيدز، ويهدف إلى دعم الأشخاص المتعايشين مع الفيروس وتعزيز جهود الوقاية."</t>
+  </si>
+  <si>
+    <t>"هذا اليوم يعتبر مهمًا لأنه يساعد في تقليل وصمة العار المرتبطة بالإيدز، ويعزز من حقوق الأشخاص المتعايشين مع الفيروس."</t>
+  </si>
+  <si>
+    <t>"يمكنكم المشاركة في هذا اليوم من خلال حضور الفعاليات التي تنظمها المنظمات المحلية، ونشر المعلومات حول الفيروس عبر وسائل التواصل الاجتماعي."</t>
+  </si>
+  <si>
+    <t>"اليوم العالمي لمكافحة الإيدز هو فرصة لتوحيد الجهود ضد فيروس نقص المناعة البشرية/الإيدز، وتعزيز الفهم والوعي في المجتمع."</t>
+  </si>
+  <si>
+    <t>"استكشفوا في هذه الصفحة كل ما يتعلق باليوم العالمي لمكافحة الإيدز 2024، بما في ذلك كم يتبقى على هذا اليوم، وأهمية التوعية بشأن فيروس نقص المناعة البشرية."</t>
+  </si>
+  <si>
+    <t>"اليوم العالمي لمكافحة الإيدز، كم باقي على اليوم العالمي لمكافحة الإيدز، العد التنازلي لليوم العالمي، مواعيد اليوم العالمي لمكافحة الإيدز، حقوق الأشخاص المتعايشين مع الإيدز، كم باقي على 1 ديسمبر."</t>
+  </si>
+  <si>
+    <t>كم باقي على اليوم العالمي لمكافحة الإيدز 2024</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_اليوم_العالمي_لحقوق_الإنسان</t>
+  </si>
+  <si>
+    <t>2024-12-10T00:00:00</t>
+  </si>
+  <si>
+    <t>"تحتفل الأمم المتحدة في العاشر من ديسمبر من كل عام باليوم العالمي لحقوق الإنسان، والذي يُعتبر من أهم المناسبات التي تسلط الضوء على حقوق الإنسان وتعزيز كرامة الفرد. يمكنكم من خلال العد التنازلي في الأسفل معرفة كم باقي يوم على هذا اليوم الهام، حيث يظهر لكم العد التنازلي لبداية اليوم العالمي لحقوق الإنسان. هذه الصفحة ستساعدكم على معرفة موعد الاحتفالات والفعاليات التي تُقام في مختلف أنحاء العالم، وذلك لتعزيز الوعي بحقوق الإنسان وضرورة احترامها."</t>
+  </si>
+  <si>
+    <t>العد التنازلي لبدء اليوم العالمي لحقوق الإنسان</t>
+  </si>
+  <si>
+    <t>"اليوم العالمي لحقوق الإنسان هو يوم مخصص للاحتفال بالحقوق الأساسية لكل إنسان، ويهدف إلى تعزيز الوعي حول انتهاكات حقوق الإنسان وضرورة التصدي لها."</t>
+  </si>
+  <si>
+    <t>"هذا اليوم يُعتبر هاماً لأنه يساهم في نشر الوعي حول حقوق الإنسان ويسلط الضوء على القضايا التي تواجه الأفراد في مختلف أنحاء العالم."</t>
+  </si>
+  <si>
+    <t>"يمكنكم المشاركة في فعاليات اليوم العالمي لحقوق الإنسان من خلال حضور المناقشات العامة، وورش العمل، والفعاليات الثقافية التي تُنظم في مدينتكم."</t>
+  </si>
+  <si>
+    <t>"اليوم العالمي لحقوق الإنسان هو فرصة لنشر الوعي وتوحيد الجهود من أجل احترام حقوق الإنسان وتعزيز الكرامة الإنسانية."</t>
+  </si>
+  <si>
+    <t>"استكشفوا في هذه الصفحة كل ما يتعلق باليوم العالمي لحقوق الإنسان 2024، بما في ذلك كم يتبقى على هذا اليوم، وأهمية حقوق الإنسان في حياتنا اليومية."</t>
+  </si>
+  <si>
+    <t>"اليوم العالمي لحقوق الإنسان، كم باقي على اليوم العالمي لحقوق الإنسان، العد التنازلي لليوم العالمي، مواعيد اليوم العالمي لحقوق الإنسان، حقوق الإنسان، كم باقي على 10 ديسمبر."</t>
+  </si>
+  <si>
+    <t>كم باقي على اليوم العالمي لحقوق الإنسان 2024</t>
+  </si>
+  <si>
+    <t>international-volunteer.webp</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_اليوم_العالمي_للمتطوعين</t>
+  </si>
+  <si>
+    <t>2024-12-05T00:00:00</t>
+  </si>
+  <si>
+    <t>"في الخامس من ديسمبر من كل عام، نحتفل باليوم العالمي للمتطوعين، وهو يوم مخصص للاحتفاء بالجهود الكبيرة التي يبذلها المتطوعون في جميع أنحاء العالم. تعتبر هذه المناسبة فرصة لتعزيز الوعي بأهمية العمل التطوعي وتأثيره الإيجابي على المجتمعات. عبر هذه الصفحة، يمكنكم معرفة كم باقي على هذا اليوم الهام، كما يظهر لكم العد التنازلي في الأسفل، مما يمكنكم من متابعة الأيام والساعات المتبقية للاحتفال بجهود المتطوعين حول العالم."</t>
+  </si>
+  <si>
+    <t>العد التنازلي لبدء اليوم العالمي للمتطوعين</t>
+  </si>
+  <si>
+    <t>"اليوم العالمي للمتطوعين هو مناسبة دولية تروج لأهمية العمل التطوعي وتقدير المتطوعين الذين يساهمون في تحسين حياة الآخرين."</t>
+  </si>
+  <si>
+    <t>"يُعتبر هذا اليوم مهمًا لأنه يساهم في تحفيز الأفراد على المشاركة في الأنشطة التطوعية ويعزز روح العمل الجماعي في المجتمع."</t>
+  </si>
+  <si>
+    <t>"يمكنكم الاستعداد لهذا اليوم من خلال الانضمام إلى الفعاليات المحلية، أو المشاركة في الأنشطة التطوعية، أو حتى تنظيم أحداث صغيرة في مجتمعاتكم."</t>
+  </si>
+  <si>
+    <t>"اليوم العالمي للمتطوعين هو فرصة لتقدير الجهود المبذولة من قبل المتطوعين، ولتشجيع المزيد من الناس على الانخراط في العمل التطوعي من أجل تحسين مجتمعاتهم."</t>
+  </si>
+  <si>
+    <t>"استكشفوا من خلال موقعنا جميع المعلومات المتعلقة باليوم العالمي للمتطوعين، كم يتبقى على هذا اليوم، وأهمية العمل التطوعي في بناء المجتمعات."</t>
+  </si>
+  <si>
+    <t>"اليوم العالمي للمتطوعين، كم باقي على اليوم العالمي للمتطوعين، العد التنازلي لليوم العالمي للمتطوعين، مواعيد اليوم العالمي للمتطوعين، العمل التطوعي، كم باقي على 5 ديسمبر."</t>
+  </si>
+  <si>
+    <t>كم باقي على اليوم العالمي للمتطوعين 2024</t>
+  </si>
+  <si>
+    <t>world-environment-day.webp</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_اليوم_العالمي_للبيئة</t>
+  </si>
+  <si>
+    <t>2025-06-05T00:00:00</t>
+  </si>
+  <si>
+    <t>"في الخامس من يونيو من كل عام، نحتفل باليوم العالمي للبيئة، وهو يوم عالمي يهدف إلى تعزيز الوعي البيئي وتحفيز العمل من أجل حماية كوكب الأرض. من خلال هذه الصفحة، يمكنكم معرفة كم باقي على هذا اليوم المهم، كما يظهر لكم العد التنازلي في الأسفل، مما يتيح لكم متابعة الأيام والساعات المتبقية للاحتفال بالجهود العالمية للحفاظ على البيئة. يعد هذا اليوم فرصة للتفكير في تأثيرنا على كوكب الأرض وكيف يمكننا جميعًا المساهمة في تحسينه."</t>
+  </si>
+  <si>
+    <t>العد التنازلي لبدء اليوم العالمي للبيئة</t>
+  </si>
+  <si>
+    <t>"اليوم العالمي للبيئة هو مناسبة دولية تهدف إلى رفع الوعي حول القضايا البيئية وتعزيز العمل من أجل حماية البيئة."</t>
+  </si>
+  <si>
+    <t>"يُعتبر هذا اليوم مهمًا لأنه يشجع الأفراد والمجتمعات على اتخاذ إجراءات إيجابية لحماية كوكبنا، ويعزز الوعي بالقضايا البيئية المهمة مثل التغير المناخي والتلوث."</t>
+  </si>
+  <si>
+    <t>"يمكنكم الاستعداد لهذا اليوم من خلال تنظيم فعاليات محلية مثل حملات تنظيف، أو زرع الأشجار، أو التوعية بأهمية الحفاظ على البيئة في مجتمعاتكم."</t>
+  </si>
+  <si>
+    <t>"اليوم العالمي للبيئة هو فرصة لجمع الجهود الفردية والجماعية نحو بيئة أكثر صحة. دعونا نعمل معًا من أجل كوكبنا!"</t>
+  </si>
+  <si>
+    <t>"استكشفوا من خلال موقعنا جميع المعلومات المتعلقة باليوم العالمي للبيئة، كم يتبقى على هذا اليوم، وأهمية حماية كوكبنا وكيفية المشاركة في الأنشطة البيئية."</t>
+  </si>
+  <si>
+    <t>"اليوم العالمي للبيئة، كم باقي على اليوم العالمي للبيئة، العد التنازلي لليوم العالمي للبيئة، مواعيد اليوم العالمي للبيئة، حماية البيئة، كم باقي على 5 يونيو."</t>
+  </si>
+  <si>
+    <t>كم باقي على اليوم العالمي للبيئة 2025</t>
+  </si>
+  <si>
+    <t>اليوم العالمي للبيئة 2025</t>
+  </si>
+  <si>
+    <t>اليوم العالمي لحقوق الإنسان 2024</t>
+  </si>
+  <si>
+    <t>اليوم العالمي لمكافحة الإيدز 2024</t>
+  </si>
+  <si>
+    <t>اليوم العالمي لذوى الإحتياجات الخاصة 2024</t>
+  </si>
+  <si>
+    <t>اليوم العالمي للمتطوعين 2024</t>
+  </si>
+  <si>
+    <t>world-blood-donor-day.webp</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_اليوم_العالمي_للدم</t>
+  </si>
+  <si>
+    <t>2025-06-14T00:00:00</t>
+  </si>
+  <si>
+    <t>"اليوم العالمي للمتبرعين بالدم هو مناسبة تحتفل بالجهود العالمية لتعزيز الوعي بأهمية التبرع بالدم. في هذا اليوم، نذكر جميع المتبرعين بالدم الذين يقدمون هدية الحياة للآخرين. يمكنكم معرفة كم باقي على هذا اليوم المهم من خلال العد التنازلي في الأسفل، مما سيمكنكم من متابعة الأيام والساعات المتبقية للاحتفال بأهمية التبرع بالدم. يعد التبرع بالدم عملًا نبيلًا ومؤثرًا في إنقاذ الأرواح."</t>
+  </si>
+  <si>
+    <t>العد التنازلي لبدء اليوم العالمي للمتبرعين بالدم</t>
+  </si>
+  <si>
+    <t>"اليوم العالمي للمتبرعين بالدم هو يوم مخصص لزيادة الوعي حول أهمية التبرع بالدم وأثره في إنقاذ الأرواح."</t>
+  </si>
+  <si>
+    <t>"تبرعكم بالدم يمكن أن ينقذ حياة شخص يحتاج إلى دم، ويعتبر عملًا إنسانيًا عظيمًا يجب على الجميع القيام به."</t>
+  </si>
+  <si>
+    <t>"يمكنكم التحضير لهذا اليوم من خلال معرفة مراكز التبرع القريبة منكم، والتسجيل لتكونوا جزءًا من هذه الحملة الإنسانية."</t>
+  </si>
+  <si>
+    <t>"دعونا نحتفل باليوم العالمي للمتبرعين بالدم من خلال زيادة الوعي وتشجيع المزيد من الناس على التبرع، فكل قطرة دم تُحدث فرقًا!"</t>
+  </si>
+  <si>
+    <t>"تعرّفوا على كل المعلومات المتعلقة باليوم العالمي للمتبرعين بالدم، كم يتبقى حتى هذا اليوم، وأهمية التبرع بالدم في إنقاذ الأرواح."</t>
+  </si>
+  <si>
+    <t>"اليوم العالمي للمتبرعين بالدم، كم باقي على اليوم العالمي للمتبرعين بالدم، العد التنازلي لليوم العالمي للمتبرعين بالدم، أهمية التبرع بالدم، متى اليوم العالمي للمتبرعين بالدم."</t>
+  </si>
+  <si>
+    <t>كم باقي على اليوم العالمي للمتبرعين بالدم 2025</t>
+  </si>
+  <si>
+    <t>اليوم العالمي للمتبرعين بالدم 2025</t>
+  </si>
+  <si>
+    <t>https://www.who.int/ar/campaigns/world-blood-donor-day</t>
+  </si>
+  <si>
+    <t>منظمة الصحة العالمية</t>
+  </si>
+  <si>
+    <t>africa-cup-of-nations.webp</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_كأس_افريقيا</t>
+  </si>
+  <si>
+    <t>2025-07-23T00:00:00</t>
+  </si>
+  <si>
+    <t>"كأس افريقيا هو واحدة من أكبر البطولات في كرة القدم في قارة أفريقيا، ويجمع أبرز المنتخبات الوطنية. من خلال هذه الصفحة، يمكنكم معرفة كم باقي على انطلاق كأس افريقيا 2025، بالإضافة إلى العد التنازلي الذي يظهر عدد الأيام والساعات المتبقية. يترقب عشاق كرة القدم هذا الحدث الكبير، حيث تتنافس الفرق الإفريقية على اللقب. يعتبر كأس افريقيا منصة لإظهار المهارات الكروية والفخر الوطني."</t>
+  </si>
+  <si>
+    <t>العد التنازلي لبدء كأس افريقيا</t>
+  </si>
+  <si>
+    <t>"كأس افريقيا هو البطولة الأفريقية الرئيسية لكرة القدم، والتي تُقام كل عامين."</t>
+  </si>
+  <si>
+    <t>"تعتبر كأس افريقيا فرصة للفرق الأفريقية لإظهار موهبتها، وتعزيز الروح الرياضية، وجمع عشاق كرة القدم من جميع أنحاء القارة."</t>
+  </si>
+  <si>
+    <t>"يمكنكم التحضير للبطولة من خلال متابعة الفرق المفضلة والتعرف على مواعيد المباريات وتواريخ الفعاليات."</t>
+  </si>
+  <si>
+    <t>"استعدوا لمتابعة بطولة كأس افريقيا 2025، حيث يُظهر اللاعبون مهاراتهم في ملعب البطولة، وتكون فرصة رائعة لتشجيع فرقكم المفضلة."</t>
+  </si>
+  <si>
+    <t>"تعرّفوا على كل التفاصيل المتعلقة بكأس افريقيا 2025، كم يتبقى على بداية البطولة، والأهمية الكبيرة لهذه الفعالية في تعزيز كرة القدم في إفريقيا."</t>
+  </si>
+  <si>
+    <t>"كأس افريقيا 2025، كم باقي على كأس افريقيا، العد التنازلي لكأس افريقيا، متى كأس افريقيا، أهمية كأس افريقيا في تعزيز كرة القدم."</t>
+  </si>
+  <si>
+    <t>كأس افريقيا 2025</t>
+  </si>
+  <si>
+    <t>https://ar.wikipedia.org/wiki/%D9%83%D8%A3%D8%B3_%D8%A7%D9%84%D8%A3%D9%85%D9%85_%D8%A7%D9%84%D8%A5%D9%81%D8%B1%D9%8A%D9%82%D9%8A%D8%A9_2025</t>
+  </si>
+  <si>
+    <t>international-arabic-day.webp</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_اليوم_العالمي_للغة_العربية</t>
+  </si>
+  <si>
+    <t>اليوم العالمي للغة العربية</t>
+  </si>
+  <si>
+    <t>2024-12-18T00:00:00</t>
+  </si>
+  <si>
+    <t>"يحتفل العالم في 18 ديسمبر من كل عام باليوم العالمي للغة العربية، وهو يوم مخصص للاحتفاء بالثراء اللغوي والثقافي للعالم العربي. من خلال هذه الصفحة، يمكنكم معرفة كم باقي على هذا اليوم المميز، بالإضافة إلى العد التنازلي الذي يظهر عدد الأيام المتبقية للاحتفال. تعتبر اللغة العربية جزءًا لا يتجزأ من التراث الثقافي للشعوب الناطقة بها، وهي إحدى اللغات الرسمية الست للأمم المتحدة. في هذا اليوم، تُقام فعاليات وندوات متعددة لتعزيز التعلم والفهم حول أهمية اللغة العربية وأثرها في الحضارة."</t>
+  </si>
+  <si>
+    <t>العد التنازلي لبدء اليوم العالمي للغة العربية</t>
+  </si>
+  <si>
+    <t>"اليوم العالمي للغة العربية هو مناسبة عالمية للاحتفال بالثقافة واللغة العربية."</t>
+  </si>
+  <si>
+    <t>"الاحتفال باليوم العالمي للغة العربية يعزز من الوعي الثقافي حول أهمية هذه اللغة في التواصل والفنون والأدب."</t>
+  </si>
+  <si>
+    <t>"يمكنكم التحضير لهذا اليوم من خلال التعرف على الأنشطة والمناسبات التي ستقام، والمشاركة في الفعاليات المحلية."</t>
+  </si>
+  <si>
+    <t>"استعدوا للاحتفال باليوم العالمي للغة العربية من خلال تعلم المزيد عن اللغة وآدابها، وتعزيز الفخر الثقافي."</t>
+  </si>
+  <si>
+    <t>"تعرفوا على كل التفاصيل المتعلقة باليوم العالمي للغة العربية، كم يتبقى على الاحتفال، وأهمية هذه اللغة في تعزيز الثقافة العربية."</t>
+  </si>
+  <si>
+    <t>"اليوم العالمي للغة العربية 2024، كم باقي على اليوم العالمي للغة العربية، العد التنازلي للاحتفال باللغة العربية، متى اليوم العالمي للغة العربية، أهمية اللغة العربية."</t>
+  </si>
+  <si>
+    <t>كم باقي على كأس افريقيا 2025 - كأس الامم الافريقية</t>
+  </si>
+  <si>
+    <t>كم باقي على اليوم العالمي للغة العربية 2024</t>
+  </si>
+  <si>
+    <t>الأمم المتحدة</t>
+  </si>
+  <si>
+    <t>https://www.un.org/ar/observances/arabiclanguageday</t>
+  </si>
+  <si>
+    <t>International-human-rights-day.webp</t>
   </si>
 </sst>
 </file>
@@ -1200,19 +1527,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1553,23 +1884,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="2.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="19" width="11.83203125" customWidth="1"/>
+    <col min="7" max="19" width="11.84765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1628,7 +1959,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1639,7 +1970,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="3">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="E2">
         <v>2025</v>
@@ -1687,7 +2018,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1698,7 +2029,7 @@
         <v>28</v>
       </c>
       <c r="D3" s="3">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="E3">
         <v>2025</v>
@@ -1746,7 +2077,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1757,7 +2088,7 @@
         <v>36</v>
       </c>
       <c r="D4" s="3">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="E4">
         <v>2025</v>
@@ -1805,7 +2136,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1816,7 +2147,7 @@
         <v>44</v>
       </c>
       <c r="D5" s="3">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="E5">
         <v>2025</v>
@@ -1864,7 +2195,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1875,7 +2206,7 @@
         <v>58</v>
       </c>
       <c r="D6" s="3">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="E6">
         <v>2025</v>
@@ -1923,7 +2254,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1934,7 +2265,7 @@
         <v>71</v>
       </c>
       <c r="D7" s="3">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="E7">
         <v>2025</v>
@@ -1982,7 +2313,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1993,7 +2324,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="3">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="E8">
         <v>2025</v>
@@ -2041,7 +2372,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2052,7 +2383,7 @@
         <v>90</v>
       </c>
       <c r="D9" s="3">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="E9">
         <v>2025</v>
@@ -2100,7 +2431,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2111,7 +2442,7 @@
         <v>100</v>
       </c>
       <c r="D10" s="3">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="E10">
         <v>2025</v>
@@ -2159,7 +2490,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2170,7 +2501,7 @@
         <v>108</v>
       </c>
       <c r="D11" s="3">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="E11">
         <v>2025</v>
@@ -2218,7 +2549,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2229,7 +2560,7 @@
         <v>116</v>
       </c>
       <c r="D12" s="3">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="E12">
         <v>2025</v>
@@ -2277,7 +2608,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2288,7 +2619,7 @@
         <v>124</v>
       </c>
       <c r="D13" s="3">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="E13">
         <v>2025</v>
@@ -2336,7 +2667,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2347,7 +2678,7 @@
         <v>132</v>
       </c>
       <c r="D14" s="3">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="E14">
         <v>2026</v>
@@ -2395,7 +2726,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2406,7 +2737,7 @@
         <v>150</v>
       </c>
       <c r="D15" s="3">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="E15">
         <v>2025</v>
@@ -2454,7 +2785,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2465,7 +2796,7 @@
         <v>172</v>
       </c>
       <c r="D16" s="3">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="E16">
         <v>2027</v>
@@ -2513,7 +2844,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2524,7 +2855,7 @@
         <v>171</v>
       </c>
       <c r="D17" s="3">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="E17">
         <v>2028</v>
@@ -2572,7 +2903,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2583,7 +2914,7 @@
         <v>173</v>
       </c>
       <c r="D18" s="3">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="E18">
         <v>2025</v>
@@ -2631,7 +2962,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2642,7 +2973,7 @@
         <v>191</v>
       </c>
       <c r="D19" s="3">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="E19">
         <v>2025</v>
@@ -2690,7 +3021,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2701,7 +3032,7 @@
         <v>200</v>
       </c>
       <c r="D20" s="3">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="E20">
         <v>2025</v>
@@ -2749,7 +3080,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2760,7 +3091,7 @@
         <v>226</v>
       </c>
       <c r="D21" s="3">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="E21" s="1">
         <v>2025</v>
@@ -2808,7 +3139,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2819,7 +3150,7 @@
         <v>239</v>
       </c>
       <c r="D22" s="3">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="E22" s="1">
         <v>2025</v>
@@ -2867,7 +3198,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2878,7 +3209,7 @@
         <v>250</v>
       </c>
       <c r="D23" s="3">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="E23" s="1">
         <v>2025</v>
@@ -2926,7 +3257,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2937,7 +3268,7 @@
         <v>329</v>
       </c>
       <c r="D24" s="3">
-        <v>45590</v>
+        <v>45597</v>
       </c>
       <c r="E24" s="1">
         <v>2025</v>
@@ -2978,7 +3309,7 @@
       <c r="Q24" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="R24" s="5" t="s">
+      <c r="R24" s="4" t="s">
         <v>341</v>
       </c>
       <c r="S24" s="1" t="s">
@@ -2988,15 +3319,477 @@
         <v>342</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.6">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D25" s="5">
+        <v>45597</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.6">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D26" s="5">
+        <v>45597</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.6">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D27" s="5">
+        <v>45597</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.6">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D28" s="5">
+        <v>45597</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.6">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D29" s="5">
+        <v>45597</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2025</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.6">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D30" s="5">
+        <v>45597</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2025</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.6">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D31" s="5">
+        <v>45597</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2025</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D32" s="5">
+        <v>45597</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="S32" s="7" t="s">
+        <v>467</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3007,9 +3800,11 @@
     <hyperlink ref="R9" r:id="rId5" xr:uid="{60EAF370-D4DB-4714-9367-9EF5A784D1C7}"/>
     <hyperlink ref="R19" r:id="rId6" xr:uid="{E6606BF9-5B4B-4D0D-9FD4-3D945673A060}"/>
     <hyperlink ref="R13" r:id="rId7" xr:uid="{A348394E-5C7C-4148-A268-3224FFB7896A}"/>
+    <hyperlink ref="R30" r:id="rId8" xr:uid="{D8112B8D-A226-4FD9-818D-6B282E30630B}"/>
+    <hyperlink ref="R31" r:id="rId9" xr:uid="{BAB31748-BB62-4D11-AA7F-97B3FAB3573B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
   <ignoredErrors>
     <ignoredError sqref="B1:S1 C4 C2 C3 C5 K5:N5 J4:N4 J2:L2 J3:L3 N2 N3 E2:H2 E4:F4 E3:H3 E5:F5 P2 P3 Q5 P4:Q4 H5" numberStoredAsText="1"/>
   </ignoredErrors>
